--- a/annotation_tool/subcategory_annotation_sheet_付加的情報のみ抽出.xlsx
+++ b/annotation_tool/subcategory_annotation_sheet_付加的情報のみ抽出.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heste/workspace/sn-script/annotation_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29048847-636F-F945-AE83-FF7FB8F9E171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D19BCC7-8D44-6446-BC7E-2E966A174ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_1_moriy" sheetId="3" r:id="rId1"/>
     <sheet name="10_1_template" sheetId="1" r:id="rId2"/>
-    <sheet name="93_1_template" sheetId="9" r:id="rId3"/>
+    <sheet name="93_1_template" sheetId="10" r:id="rId3"/>
     <sheet name="subcategory" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_93_1_target_prompt_True_3" localSheetId="2">'93_1_template'!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'10_1_moriy'!$A$1:$J$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,27 +38,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{32B069F7-8BB0-6E43-A549-D3777CB8D691}" name="93_1_target_prompt_True" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10001" sourceFile="/Users/heste/workspace/sn-script/resources/93_1_target_prompt_True.csv" tab="0" comma="1">
-      <textFields count="8">
-        <textField/>
-        <textField/>
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="246">
   <si>
     <t>Quiero parar un poco en él y subrayarlo porque me encantaría que nos lo repitieran además. Porque ante una buena presión, que es la que está haciendo el Burnley, no es perfecta, pero yo creo que tiene bastante nivel.</t>
   </si>
@@ -814,13 +794,6 @@
     <t>繰り返し（と言うかsentence split &amp; cocatenateのバグがありそう）</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">クリカエシ </t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>映像に関連する</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">エイゾウニカンレンスル </t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -864,13 +837,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>付加的情報じゃない、映像には関連している</t>
-    <rPh sb="0" eb="5">
-      <t xml:space="preserve">フカテキジョウホウジャナイ </t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>付加的情報ではない。映像に関連する</t>
     <rPh sb="0" eb="5">
       <t xml:space="preserve">フカテキジョウホウデハナイ </t>
@@ -892,1447 +858,61 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>gap(sec)</t>
-  </si>
-  <si>
-    <t>prev</t>
-  </si>
-  <si>
-    <t>subcategory</t>
-  </si>
-  <si>
-    <t>england_epl/2014-2015/2015-02-21 - 18-00 Chelsea 1 - 1 Burnley</t>
-  </si>
-  <si>
-    <t>19:02</t>
-  </si>
-  <si>
-    <t>33:46</t>
-  </si>
-  <si>
-    <t>41:01</t>
-  </si>
-  <si>
-    <t>07:48</t>
-  </si>
-  <si>
-    <t>34:15</t>
-  </si>
-  <si>
-    <t>22:28</t>
-  </si>
-  <si>
-    <t>01:24</t>
-  </si>
-  <si>
-    <t>22:53</t>
-  </si>
-  <si>
-    <t>18:55</t>
-  </si>
-  <si>
-    <t>19:46</t>
-  </si>
-  <si>
-    <t>02:28</t>
-  </si>
-  <si>
-    <t>spain_laliga/2016-2017/2017-04-29 - 17-15 Real Madrid 2 - 1 Valencia</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>europe_uefa-champions-league/2014-2015/2015-04-21 - 21-45 Bayern Munich 6 - 1 FC Porto</t>
-  </si>
-  <si>
-    <t>01:06</t>
-  </si>
-  <si>
-    <t>01:19</t>
-  </si>
-  <si>
-    <t>And Boateng. Trying to get Bernat forward from full-back, and Gﾃｶtze on the end of that pass.</t>
-  </si>
-  <si>
-    <t>He's got that in his arsenal, Boateng, either left or right, pinging it out to the wide areas, normally looking for the likes of Robben or Ribﾃｩry.</t>
-  </si>
-  <si>
-    <t>germany_bundesliga/2016-2017/2016-09-20 - 21-00 Wolfsburg 1 - 5 Dortmund</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>12:15</t>
-  </si>
-  <si>
-    <t>Mit Raum, mit Platz vorbei an Verenia. Gestoppt von Arnold, der sich da gelb abholt.</t>
-  </si>
-  <si>
-    <t>Hat noch kein Tor erzielt Dembﾃｩlﾃｩ, aber das ist ein fantastisches Talent.</t>
-  </si>
-  <si>
-    <t>england_epl/2015-2016/2016-02-27 - 18-00 Southampton 1 - 2 Chelsea</t>
-  </si>
-  <si>
-    <t>37:01</t>
-  </si>
-  <si>
-    <t>37:04</t>
-  </si>
-  <si>
-    <t>It's been all change at the back for Chelsea. It may well have suited the centre-back, certainly Ivanovic as we spoke about earlier.</t>
-  </si>
-  <si>
-    <t>Gary Cahill, probably England's number one choice.</t>
-  </si>
-  <si>
-    <t>england_epl/2016-2017/2016-12-14 - 22-45 Middlesbrough 0 - 3 Liverpool</t>
-  </si>
-  <si>
-    <t>43:17</t>
-  </si>
-  <si>
-    <t>43:23</t>
-  </si>
-  <si>
-    <t>Mane so close to his eighth of the season. He's Liverpool's top scorer.</t>
-  </si>
-  <si>
-    <t>Who they will be without of course for January at the Africa Cup of Nations with Senegal.</t>
-  </si>
-  <si>
-    <t>england_epl/2015-2016/2015-08-29 - 17-00 Chelsea 1 - 2 Crystal Palace</t>
-  </si>
-  <si>
-    <t>37:15</t>
-  </si>
-  <si>
-    <t>37:25</t>
-  </si>
-  <si>
-    <t>That's out Okay Well Then I think there's a little bit of butt passing there from chelsea. It's ended up with gary kay or center back having the The shot and you'd be quite happy for that if your center backs are having shots from 30 yards But william fabregas costa they all passed up the opportunity Ended up with gary kay or taking the strike Foreign Chelsea secured the championship with a win here against crystal palace at the start of may Fourth premier league title with three games remaining They've been top of the table since the end of august Foreign Fabregas You can get fabregas this lip Foreign How's that William Foreign That's a better from william getting to the dead ball line going past It's a high on that far side just showing it and then going around him corner to chelsea, but I haven't really had that sustained battle pressure that you normally see at the bridge when teams come down here William That was on target Foreign William Foreign A great closing down from palace and well defended gary kay or against wickham there good ball Diego costa Can't get suare out of the way Just the first time we've seen fabregas get his head up and trying it Diego costa on the angle where he just cuts across the ball and peels off The far player in this case the fullback suare, but he defended it.</t>
-  </si>
-  <si>
-    <t>Well Palace, you can see immediately that ball went backwards.</t>
-  </si>
-  <si>
-    <t>europe_uefa-champions-league/2014-2015/2015-05-06 - 21-45 Barcelona 3 - 0 Bayern Munich</t>
-  </si>
-  <si>
-    <t>36:01</t>
-  </si>
-  <si>
-    <t>36:08</t>
-  </si>
-  <si>
-    <t>In their last 32 home games in the Champions League, Barcelona have only been beaten once. But, of course, it was by Bayern.</t>
-  </si>
-  <si>
-    <t>Only two years ago.</t>
-  </si>
-  <si>
-    <t>england_epl/2016-2017/2016-12-10 - 20-30 Leicester 4 - 2 Manchester City</t>
-  </si>
-  <si>
-    <t>26:43</t>
-  </si>
-  <si>
-    <t>26:50</t>
-  </si>
-  <si>
-    <t>Really quick. The speed of it running backwards was amazing.</t>
-  </si>
-  <si>
-    <t>But still, when it hits Michael Oliver, it's on the edge of the Leicester box.</t>
-  </si>
-  <si>
-    <t>england_epl/2014-2015/2015-02-22 - 19-15 Southampton 0 - 2 Liverpool</t>
-  </si>
-  <si>
-    <t>05:47</t>
-  </si>
-  <si>
-    <t>05:54</t>
-  </si>
-  <si>
-    <t>Sterling chases. Had it from Yoshida.</t>
-  </si>
-  <si>
-    <t>Targeted Lallana, getting involved in a few isolated boos for Adam Lallana there.</t>
-  </si>
-  <si>
-    <t>italy_serie-a/2014-2015/2015-05-17 - 13-30 Sassuolo 3 - 2 AC Milan</t>
-  </si>
-  <si>
-    <t>08:31</t>
-  </si>
-  <si>
-    <t>08:34</t>
-  </si>
-  <si>
-    <t>24 aﾃｱos ya tiene el jugador. Ya decﾃｭa de la Roma.</t>
-  </si>
-  <si>
-    <t>Ha pasado ya por varios equipos en Italia.</t>
-  </si>
-  <si>
-    <t>spain_laliga/2016-2017/2017-01-29 - 14-00 Betis 1 - 1 Barcelona</t>
-  </si>
-  <si>
-    <t>06:14</t>
-  </si>
-  <si>
-    <t>06:41</t>
-  </si>
-  <si>
-    <t>Prolonga el despeje Dani Ceballos, insiste el Barﾃｧa con Neymar. Balﾃｳn tocado de Neymar, ese balﾃｳn tiene que ser, ese balﾃｳn es para Antonio Adﾃ｡n.</t>
-  </si>
-  <si>
-    <t>Pero bien hechas en este caso las vigilancias del Barcelona, saben que tienen que estar muy atentos, sobre todo a la posiciﾃｳn de Ruben Castro, que es muy inteligente, lateraliza mucho su posiciﾃｳn, con lo cual hace perder de vista a los centrales o intenta separar con esa posiciﾃｳn a los centrales.</t>
-  </si>
-  <si>
-    <t>08:03</t>
-  </si>
-  <si>
-    <t>CHEERING We've heard a lot of stories coming out of Chelsea this week, about positive meetings, the training's been good, the performance is improving. You wondered what would happen on the pitch, well, what's happened early is Chelsea have gone ahead and been on top.</t>
-  </si>
-  <si>
-    <t>What's been so surprising to me are the number of goals Chelsea have conceded, 19 goals this season in the Premier League, that's quite remarkable when Jose Mourinho works so hard on defending.</t>
-  </si>
-  <si>
-    <t>spain_laliga/2014-2015/2015-04-11 - 17-00 Real Madrid 3 - 0 Eibar</t>
-  </si>
-  <si>
-    <t>33:32</t>
-  </si>
-  <si>
-    <t>Pues desde aquﾃｭ la perspectiva me impedﾃｭa precisar sobre quiﾃｩn eran las indicaciones que estaba. No era con Garitano, era directamente con alguien del banquillo, a Garitano le tenﾃｭa penas a un par de metros.</t>
-  </si>
-  <si>
-    <t>Varane, Arbeloa, un buen centro de Arbeloa, un gran remate de Chicharito han servido para que el Real Madrid lograra el segundo tanto.</t>
-  </si>
-  <si>
-    <t>italy_serie-a/2016-2017/2016-10-15 - 16-00 Napoli 1 - 3 AS Roma</t>
-  </si>
-  <si>
-    <t>12:07</t>
-  </si>
-  <si>
-    <t>12:25</t>
-  </si>
-  <si>
-    <t>ﾐ旃, ﾐｿﾐｾﾐｽﾑ肖ひｽﾐｾ, ﾐｿﾑ\ﾐｸﾐｵﾑﾐｰﾐｻ ﾐｸﾐｷ ﾐ籍ｻﾐｶﾐｸﾑ\ﾐｰ. 25 ﾐｻﾐｵﾑ.</t>
-  </si>
-  <si>
-    <t>ﾐ｡ﾐｵﾐｼﾑ ﾐｼﾐｰﾑびﾐｵﾐｹ ﾐｿﾑ\ﾐｾﾐｲﾑ岱ｻ.</t>
-  </si>
-  <si>
-    <t>05:13</t>
-  </si>
-  <si>
-    <t>05:15</t>
-  </si>
-  <si>
-    <t>Es muy arriesgado hacer eso. Puedes cometer un error que ha estado a punto de costarle caro al equipo.</t>
-  </si>
-  <si>
-    <t>La verdad, lo ha comentado mucho Van Gaal.</t>
-  </si>
-  <si>
-    <t>spain_laliga/2016-2017/2016-10-15 - 17-15 Barcelona 4 - 0 Dep. La Coruna</t>
-  </si>
-  <si>
-    <t>01:55</t>
-  </si>
-  <si>
-    <t>02:29</t>
-  </si>
-  <si>
-    <t>Sidney, tocando atrﾃ｡s ante la presiﾃｳn de Busquets, se la quita de encima por Otolux, mete la cabeza Matiﾃｩ, hace lo propio Neymar, la revienta al Ventosa, intenta bajarla Mascherano, quiﾃｩn se la queda, toca de cabeza Piquﾃｩ, la pelota que aﾃｺn no toca, el suelo, mal control de Mosquera, la recuperaciﾃｳn del FC Barcelona, este es Busquets. Saliendo por la derecha con Arda Turan.</t>
-  </si>
-  <si>
-    <t>Esta forma de jugar obliga mucho, sobre todo a los jugadores que juegan dentro, cuando vas a robar el balﾃｳn, a abrir mucho el campo rﾃ｡pidamente para intentar darle amplitud, para evitar que ese espacio pequeﾃｱo, como ahora se estﾃ｡n esas disputas de balones en muy poquitos sitios, el partido se juega en muy pocos metros, necesitas mﾃ｡s amplitud, mﾃ｡s metros y eso lo da despuﾃｩs del robo, el abrir el campo y buscar mﾃ｡s amplitud.</t>
-  </si>
-  <si>
-    <t>england_epl/2015-2016/2016-01-13 - 22-45 Chelsea 2 - 2 West Brom</t>
-  </si>
-  <si>
-    <t>12:24</t>
-  </si>
-  <si>
-    <t>12:32</t>
-  </si>
-  <si>
-    <t>They won at home against Newcastle thanks to Darren Fletcher's late winner. It's he who stabs to Olsen here.</t>
-  </si>
-  <si>
-    <t>Johnny Evans won it against Stoke in injury time.</t>
-  </si>
-  <si>
-    <t>england_epl/2016-2017/2016-11-06 - 17-15 Liverpool 6 - 1 Watford</t>
-  </si>
-  <si>
-    <t>01:12</t>
-  </si>
-  <si>
-    <t>That's Amr Abad who's holding him off and playing it against him. That's a decent ball in from James Milner, playing it left-back, predominantly right-footed, he will be able to step onto his right foot and deliver those decent balls into the box, so players like Mane can take a chance at the far post, because they know his delivery is going to be decent.</t>
-  </si>
-  <si>
-    <t>The last defeat suffered by both these teams was 2-0 against Burnley, Liverpool have been on an 11-match unbeaten run since theirs, eight of them in the Premier League.</t>
-  </si>
-  <si>
-    <t>33:14</t>
-  </si>
-  <si>
-    <t>33:24</t>
-  </si>
-  <si>
-    <t>They got a win in Manchester last season, that's CSKA when they beat Manchester City. The man who got the two goals that night, Sadio Dumbia, is only on the bench.</t>
-  </si>
-  <si>
-    <t>It was aided significantly by the fact that Fernandinho and Yaya Tourﾃｩ were both sent off.</t>
-  </si>
-  <si>
-    <t>italy_serie-a/2015-2016/2015-11-07 - 22-45 AC Milan 0 - 0 Atalanta</t>
-  </si>
-  <si>
-    <t>19:50</t>
-  </si>
-  <si>
-    <t>20:05</t>
-  </si>
-  <si>
-    <t>Let's give you an idea. 14 coaches since Bellini first stepped in at Adelanto.</t>
-  </si>
-  <si>
-    <t>It might be a cauldron that produces a ton of talent in Italy but they like a different chef every so often.</t>
-  </si>
-  <si>
-    <t>germany_bundesliga/2016-2017/2016-10-29 - 19-30 Dortmund 0 - 0 Schalke</t>
-  </si>
-  <si>
-    <t>06:17</t>
-  </si>
-  <si>
-    <t>06:24</t>
-  </si>
-  <si>
-    <t>Exzellente Spielmﾃｶglichkeit. Exzellente Spielmachung von Di Santo.</t>
-  </si>
-  <si>
-    <t>Vergangene Woche beim 3-0 gegen Mainz.</t>
-  </si>
-  <si>
-    <t>spain_laliga/2015-2016/2016-04-16 - 17-00 Getafe 1 - 5 Real Madrid</t>
-  </si>
-  <si>
-    <t>17:25</t>
-  </si>
-  <si>
-    <t>17:38</t>
-  </si>
-  <si>
-    <t>El partido que empieza a abrirse y a estas alturas de encuentro es llamativo que haya tantos espacios. Kroos.</t>
-  </si>
-  <si>
-    <t>Sﾃｭ, porque el Getafe cuando llega al Real Madrid, la verdad es que los tres de arriba sobre todo, mﾃ｡s James y nuevamente Isco, pues cuando tienen el balﾃｳn no se lo piensan, van directamente para arriba.</t>
-  </si>
-  <si>
-    <t>spain_laliga/2016-2017/2016-08-20 - 19-15 Barcelona 6 - 2 Betis</t>
-  </si>
-  <si>
-    <t>07:33</t>
-  </si>
-  <si>
-    <t>07:37</t>
-  </si>
-  <si>
-    <t>Esa pelota terminﾃｳ en la porterﾃｭa de Adﾃ｡n. Ya gana el Barﾃｧa.</t>
-  </si>
-  <si>
-    <t>Siete de la primera parte, 1-0.</t>
-  </si>
-  <si>
-    <t>32:02</t>
-  </si>
-  <si>
-    <t>32:18</t>
-  </si>
-  <si>
-    <t>Toni Kroos, ha visto el desmarque de Marcelo, recibe el brasileﾃｱo, la pone Marcelo, llegﾃｳ a tocar Munir, el saque de banda. Esa es la vﾃｭa por la que el Real Madrid intenta desequilibrar con mﾃ｡s frecuencia los centros.</t>
-  </si>
-  <si>
-    <t>Asﾃｭ llegﾃｳ el gol y estﾃ｡n cayendo de izquierda y de derecha, porque por adentro le cuesta mucho encontrar espacio al Real Madrid.</t>
-  </si>
-  <si>
-    <t>07:08</t>
-  </si>
-  <si>
-    <t>07:28</t>
-  </si>
-  <si>
-    <t>The flag is up, though, it wouldn't have counted. Yeah, it was just a little bit far out for Willian to have a shot, and it's Zouma that's actually offside, and he makes the action towards the ball, and that's a jump, brings him into an offside position.</t>
-  </si>
-  <si>
-    <t>Here's Coutinho, he's not been really in his best form so far this season, left out of the most recently named Brazilian squad for an upcoming game against Argentina, World Cup qualifier that too.</t>
-  </si>
-  <si>
-    <t>italy_serie-a/2016-2017/2017-04-24 - 21-45 Pescara 1 - 4 AS Roma</t>
-  </si>
-  <si>
-    <t>31:00</t>
-  </si>
-  <si>
-    <t>31:05</t>
-  </si>
-  <si>
-    <t>ﾐ ﾑ采ひｾ ﾑσｶﾐｵ ﾐｽﾐｵ ﾐｲ ﾐｿﾐｵﾑ\ﾐｲﾑ巾ｹ ﾑ\ﾐｰﾐｷ ﾐｼﾐｾﾐｶﾐｽﾐｾ ﾑσｲﾐｸﾐｴﾐｵﾑび. ﾐ岱ｾﾐｻﾑ袴威ｵ ﾐｿﾐｾﾐｻﾑτﾐｰﾑﾐｰ ﾐｲ ﾐｸﾐｳﾑ\ﾐｵ ﾐｿﾐｾﾐｷﾐｰﾐｴﾐｸ.</t>
-  </si>
-  <si>
-    <t>0-0 ﾐｿﾐｾ-ﾐｿﾑ\ﾐｵﾐｶﾐｽﾐｵﾐｼﾑ.</t>
-  </si>
-  <si>
-    <t>france_ligue-1/2016-2017/2017-01-21 - 19-00 Nantes 0 - 2 Paris SG</t>
-  </si>
-  <si>
-    <t>01:44</t>
-  </si>
-  <si>
-    <t>02:00</t>
-  </si>
-  <si>
-    <t>Et puis forcﾃｩment quand on gagne, quand on enchaﾃｮne, on a de la confiance, on a de l'envie, de l'enthousiasme. Et ﾃｧa se voit dans ce dﾃｩbut de match.</t>
-  </si>
-  <si>
-    <t>Voilﾃ  la maﾃｮtrise parisienne au milieu avec Verratti et Thiago Mota qui a ﾃｩtﾃｩ mis vraiment sous pression par le pressing nantais et notamment Valentin Rongier.</t>
-  </si>
-  <si>
-    <t>italy_serie-a/2016-2017/2016-08-27 - 21-45 Napoli 4 - 2 AC Milan</t>
-  </si>
-  <si>
-    <t>19:34</t>
-  </si>
-  <si>
-    <t>ﾐ渙ｾﾑﾐｵﾐｼﾑ? ﾐ頒ｻﾑ ﾐ慴ｰﾐｽﾑひｵﾐｻﾐｻﾐｾ ﾑ采ひｾﾑ ﾑﾐｵﾐｷﾐｾﾐｽ ﾐｾﾑﾐｵﾐｽﾑ ﾐｸ ﾐｾﾑﾐｵﾐｽﾑ ﾐｲﾐｰﾐｶﾐｵﾐｽ.</t>
-  </si>
-  <si>
-    <t>ﾐ渙ｾﾑひｾﾐｼﾑ ﾑﾑひｾ ﾐｾﾐｽ ﾐｴﾐｾﾐｻﾐｶﾐｵﾐｽ ﾑσｱﾐｵﾐｴﾐｸﾑび ﾐｽﾐｾﾐｲﾐｾﾐｵ ﾑ\ﾑσｺﾐｾﾐｲﾐｾﾐｴﾑﾑひｲﾐｾ ﾐｲ ﾑひｾﾐｼ, ﾑﾑひｾ ﾑ采ひｾ ﾑひｾﾑ ﾑﾐｵﾐｻﾐｾﾐｲﾐｵﾐｺ, ﾐｿﾐｾﾐｴ ﾐｺﾐｾﾑひｾﾑ\ﾐｾﾐｳﾐｾ ﾐｼﾐｾﾐｶﾐｽﾐｾ ﾐｿﾐｾﾑび\ﾐｰﾑひｸﾑび 300 ﾐｼﾐｸﾐｻﾐｻﾐｸﾐｾﾐｽﾐｾﾐｲ ﾐｵﾐｲﾑ\ﾐｾ ﾐｸ ﾐｺﾑσｿﾐｸﾑび ﾐｸﾐｳﾑ\ﾐｾﾐｺﾐｾﾐｲ.</t>
-  </si>
-  <si>
-    <t>europe_uefa-champions-league/2016-2017/2017-04-12 - 21-45 Bayern Munich 1 - 2 Real Madrid</t>
-  </si>
-  <si>
-    <t>11:34</t>
-  </si>
-  <si>
-    <t>11:40</t>
-  </si>
-  <si>
-    <t>De hacerse dueﾃｱo del partido. Ha parado ya el Real Madrid de esa intenciﾃｳn.</t>
-  </si>
-  <si>
-    <t>Y ahora tiene largas posesiones.</t>
-  </si>
-  <si>
-    <t>england_epl/2015-2016/2016-01-23 - 20-30 West Ham 2 - 2 Manchester City</t>
-  </si>
-  <si>
-    <t>11:13</t>
-  </si>
-  <si>
-    <t>11:24</t>
-  </si>
-  <si>
-    <t>So double trouble for West Ham with not only the concession of the penalty, but the injury that looks like it will end Jenkinson's involvement in the game. And Sam Byron, whom Slavon Berger has been a fan of for a long time, Sam Byron, whom Slavon Berger admitted this week when he signed him, was being bought for the future and very much with next season in mind, is being called to step up much earlier than that.</t>
-  </si>
-  <si>
-    <t>I've seen Sam Byron play a lot in the Championship, he's a very composed player, versatile as well, can play at right-back where he's gonna play here, he can play at centre-half in midfield as well.</t>
-  </si>
-  <si>
-    <t>11:56</t>
-  </si>
-  <si>
-    <t>12:02</t>
-  </si>
-  <si>
-    <t>A Obi Mikel tambiﾃｩn le veﾃｭamos con corbata porque oficialmente es el ﾃｺnico lesionado del equipo. John Obi Mikel ahora mismo.</t>
-  </si>
-  <si>
-    <t>Un Chelsea que solo ha cedido un empate en Liga.</t>
-  </si>
-  <si>
-    <t>italy_serie-a/2016-2017/2017-05-06 - 19-00 Napoli 3 - 1 Cagliari</t>
-  </si>
-  <si>
-    <t>32:10</t>
-  </si>
-  <si>
-    <t>32:22</t>
-  </si>
-  <si>
-    <t>ﾐｭﾑひｾ ﾑﾑτび ﾐｻﾐｸ ﾐｽﾐｵ ﾐｿﾐｵﾑ\ﾐｲﾐｰﾑ ﾑひｵﾐｼﾐｰ ﾐｴﾐｻﾑ ﾐｾﾐｱﾑﾑσｶﾐｴﾐｵﾐｽﾐｸﾑ, ﾐｺﾐｾﾐｳﾐｴﾐｰ ﾐｲ ﾐｳﾐｰﾐｷﾐｵﾑひｰﾑ ﾐｿﾐｾﾑ紹ｲﾐｻﾑ肖紗びﾑ ﾐｺﾐｰﾐｺﾐｸﾐｵ-ﾑひｾ ﾐｷﾐｰﾐｼﾐｵﾑひｺﾐｸ ﾐｿﾑ\ﾐｾ ﾐ斷ｰﾐｿﾐｾﾐｻﾐｸ. ﾐ斷ｾ ﾑﾐｵﾐｳﾐｾﾐｴﾐｽﾑ ﾐｽﾐｰﾐｿﾐｾﾐｼﾐｽﾐｸﾐｼ ﾐ慴ｵﾑ\ﾑひｵﾐｽﾑﾑ ﾑﾐｲﾐｾﾐｹ ﾐｿﾐｵﾑ\ﾑﾐｾﾐｽﾐｰﾐｻﾑ糊ｽﾑ巾ｹ ﾐｿﾑ\ﾐｰﾐｷﾐｴﾐｽﾐｸﾐｺ.</t>
-  </si>
-  <si>
-    <t>ﾐ頒ｵﾐｽﾑ ﾑ\ﾐｾﾐｶﾐｴﾐｵﾐｽﾐｸﾑ.</t>
-  </si>
-  <si>
-    <t>europe_uefa-champions-league/2015-2016/2015-09-16 - 21-45 Bayer Leverkusen 4 - 1 BATE</t>
-  </si>
-  <si>
-    <t>34:22</t>
-  </si>
-  <si>
-    <t>ﾐ ﾐｺﾐｰﾐｶﾐｴﾑ巾ｹ ﾑﾐｵﾐｷﾐｾﾐｽ 2-3 ﾑび\ﾐｰﾐｲﾐｼﾑ ﾐｾﾐｱﾑ紹ｷﾐｰﾑひｵﾐｻﾑ糊ｽﾐｾ ﾐｱﾑ巾ｲﾐｰﾑ紗 ﾑ ﾐ｡ﾐｲﾐｵﾐｽﾐｰ ﾐ岱ｵﾐｽﾐｴﾐｵﾑ\ﾐｰ. ﾐ ﾑ ﾐ嶢ｰﾑ\ﾑﾐｰ ﾐ岱ｵﾐｽﾐｴﾐｵﾑ\ﾐｰ, ﾑﾐｾﾐｾﾑひｲﾐｵﾑびﾑひｲﾐｵﾐｽﾐｽﾐｾ, ﾑひｾﾐｶﾐｵ.</t>
-  </si>
-  <si>
-    <t>ﾐ樮ﾐｵﾐｽﾑ ﾐｱﾐｾﾐｻﾑ糊ｽﾐｾ.</t>
-  </si>
-  <si>
-    <t>italy_serie-a/2016-2017/2016-10-30 - 17-00 Empoli 0 - 0 AS Roma</t>
-  </si>
-  <si>
-    <t>02:40</t>
-  </si>
-  <si>
-    <t>ﾐ斷ｵﾑ ﾐ､ﾐｻﾐｾﾑ\ﾐｵﾐｽﾑ⇦ｸﾐｸ. ﾐ飯σｼﾐｰﾐｻﾐｸ, ﾐｳﾐｰﾐｴﾐｰﾐｻﾐｸ, ﾐｺﾐｵﾐｼ ﾐｷﾐｰﾐｼﾐｵﾐｽﾐｸﾑび.</t>
-  </si>
-  <si>
-    <t>ﾐ ﾑ\ﾐｵﾐｷﾑσｻﾑ袴ひｰﾑひｵ ﾐ ﾑ社ｴﾐｵﾐｳﾐｵﾑ\ ﾐｲﾑ錦威ｵﾐｻ ﾐｽﾐｰ ﾐｻﾐｵﾐｲﾐｾﾐｼ ﾑﾐｻﾐｰﾐｽﾐｳﾐｵ, ﾐｰ ﾐｭﾐｼﾐｵﾑ\ﾑﾐｾﾐｽ ﾑﾑ巾ｳﾑ\ﾐｰﾐｵﾑ ﾑﾐｵﾐｳﾐｾﾐｴﾐｽﾑ ﾑﾐｿﾑ\ﾐｰﾐｲﾐｰ.</t>
-  </si>
-  <si>
-    <t>germany_bundesliga/2016-2017/2016-10-22 - 16-30 Ingolstadt 3 - 3 Dortmund</t>
-  </si>
-  <si>
-    <t>06:21</t>
-  </si>
-  <si>
-    <t>06:32</t>
-  </si>
-  <si>
-    <t>Alles korrekt. Dann ist er dran, wird ﾃｼberhaupt nicht attackiert.</t>
-  </si>
-  <si>
-    <t>Und macht nach 5,5 Jahren mal wieder ein Bundesligator das erste fﾃｼr den FC Ingolstadt.</t>
-  </si>
-  <si>
-    <t>spain_laliga/2015-2016/2016-04-20 - 23-00 Real Madrid 3 - 0 Villarreal</t>
-  </si>
-  <si>
-    <t>43:30</t>
-  </si>
-  <si>
-    <t>43:54</t>
-  </si>
-  <si>
-    <t>Ahora cuando ya vemos que el bomba fuera, ya parte y solo, pero no es tan fﾃ｡cil el pase como que reto mamba a Bakambﾃｺ. Y una vez mﾃ｡s Keylor Nava demostrando que es portero para el Real Madrid de sobra.</t>
-  </si>
-  <si>
-    <t>Porque tiene eso que tienen los porteros de los equipos dominadores, que a veces tiene que participar, solo a veces, pero son exigentes esas ocasiones y la verdad es que Keylor Nava reacciona fenomenalmente bien ante las oportunidades que le generan los contrarios.</t>
-  </si>
-  <si>
-    <t>england_epl/2015-2016/2015-08-16 - 18-00 Manchester City 3 - 0 Chelsea</t>
-  </si>
-  <si>
-    <t>12:57</t>
-  </si>
-  <si>
-    <t>13:01</t>
-  </si>
-  <si>
-    <t>We've got some problems Chelsea down that side, Gary Cahill's getting pulled out into positions that you wouldn't normally see Chelsea centre-backs. City have been the brighter.</t>
-  </si>
-  <si>
-    <t>They scored in the opening seconds.</t>
-  </si>
-  <si>
-    <t>france_ligue-1/2016-2017/2017-04-14 - 21-45 Angers 0 - 2 Paris SG</t>
-  </si>
-  <si>
-    <t>29:49</t>
-  </si>
-  <si>
-    <t>29:54</t>
-  </si>
-  <si>
-    <t>Il le montre mﾃｪme de la main. Je te promets, j'ai pas essayﾃｩ de frapper.</t>
-  </si>
-  <si>
-    <t>Mais ﾃｧa se voyait un petit peu.</t>
-  </si>
-  <si>
-    <t>14:20</t>
-  </si>
-  <si>
-    <t>14:36</t>
-  </si>
-  <si>
-    <t>Kroos e Isco, Isco que ha visto venir a Pablo, metiﾃｳ el cuerpo y luego cambiﾃｳ el ritmo, Isco hacia Cristiano, devuelve la pared, Isco que busca la rosca en el disparo, Gesﾃｩ probablemente estaba en mejor posiciﾃｳn. Sﾃｭ, si hubiera intentado buscar a Gesﾃｩ con un control orientado prﾃ｡cticamente estaba dentro del ﾃ｡rea, pero muy bien el cambio de ritmo que ha hecho Isco, la combinaciﾃｳn con Cristiano.</t>
-  </si>
-  <si>
-    <t>Bueno, yo creo que el Mﾃ｡laga estﾃ｡ apretﾃ｡ndoles arriba para que juegue el balﾃｳn largo como hizo el Granada y el Real Madrid pues estﾃ｡ controlando bien esa segunda parte del juego.</t>
-  </si>
-  <si>
-    <t>england_epl/2015-2016/2016-05-07 - 17-00 Sunderland 3 - 2 Chelsea</t>
-  </si>
-  <si>
-    <t>36:57</t>
-  </si>
-  <si>
-    <t>Kershav. Bereni who scored against Chelsea at Stamford Bridge this season.</t>
-  </si>
-  <si>
-    <t>Chelsea were comfortable 3-1 winners.</t>
-  </si>
-  <si>
-    <t>spain_laliga/2016-2017/2017-02-26 - 22-45 Villarreal 2 - 3 Real Madrid</t>
-  </si>
-  <si>
-    <t>40:48</t>
-  </si>
-  <si>
-    <t>40:50</t>
-  </si>
-  <si>
-    <t>Pepe para Kroos. Kroos atrﾃ｡s para Lucas Modri.</t>
-  </si>
-  <si>
-    <t>La mano de Samu Castillejo.</t>
-  </si>
-  <si>
-    <t>england_epl/2014-2015/2015-04-11 - 19-30 Burnley 0 - 1 Arsenal</t>
-  </si>
-  <si>
-    <t>05:25</t>
-  </si>
-  <si>
-    <t>05:34</t>
-  </si>
-  <si>
-    <t>Pues termina rematando alto el chileno. Quﾃｩ jugada el primer toque, combinaciones entre tres jugadores, entre ﾃ奔il, Giroud que descarga, vamos a ver aquﾃｭ, primer toque, primer toque, es casi todo el primer toque.</t>
-  </si>
-  <si>
-    <t>Otro primer toque, el ﾃｺnico que da dos toques en la jugada es Alexis, luego verdad que le cae un rechace del defensor.</t>
-  </si>
-  <si>
-    <t>england_epl/2015-2016/2015-09-20 - 18-00 Southampton 2 - 3 Manchester United</t>
-  </si>
-  <si>
-    <t>26:31</t>
-  </si>
-  <si>
-    <t>26:41</t>
-  </si>
-  <si>
-    <t>He just goes down, throws himself to the ground. Not a penalty.</t>
-  </si>
-  <si>
-    <t>Offense.</t>
-  </si>
-  <si>
-    <t>italy_serie-a/2016-2017/2016-10-26 - 21-45 Napoli 2 - 0 Empoli</t>
-  </si>
-  <si>
-    <t>00:09</t>
-  </si>
-  <si>
-    <t>00:13</t>
-  </si>
-  <si>
-    <t>ﾐ渙ｵﾐｿﾐｵ ﾐ ﾐｵﾐｹﾐｽﾐｰ, 25 ﾐｽﾐｾﾐｼﾐｵﾑ\ ﾐｲ ﾐｲﾐｾﾑ\ﾐｾﾑひｰﾑ ﾐ斷ｰﾐｿﾐｾﾐｻﾐｸ. ﾐ｡ﾐｾﾑび巾ｹ ﾐｼﾐｰﾑび ﾐｷﾐｰ ﾐｺﾐｻﾑσｱ ﾐｾﾐｽ ﾑﾐｵﾐｳﾐｾﾐｴﾐｽﾑ ﾐｿﾑ\ﾐｾﾐｲﾐｾﾐｴﾐｸﾑ.</t>
-  </si>
-  <si>
-    <t>ﾐ｣ ﾐｽﾐｵﾐｳﾐｾ ﾑﾐｵﾐｳﾐｾﾐｴﾐｽﾑ ﾑ社ｱﾐｸﾐｻﾐｵﾐｹ.</t>
-  </si>
-  <si>
-    <t>england_epl/2014-2015/2015-02-21 - 18-00 Crystal Palace 1 - 2 Arsenal</t>
-  </si>
-  <si>
-    <t>00:38</t>
-  </si>
-  <si>
-    <t>00:51</t>
-  </si>
-  <si>
-    <t>ﾐ渙ｾ ﾑﾐｾﾑﾑひｾﾑ紹ｽﾐｸﾑ ﾐｽﾐｰ ﾑひｵﾐｺﾑτ禍ｸﾐｹ ﾐｼﾐｾﾐｼﾐｵﾐｽﾑ Arsenal ﾐｷﾐｰﾐｽﾐｸﾐｼﾐｰﾐｵﾑ 5 ﾐｼﾐｵﾑﾑひｾ ﾐｸ ﾐｽﾐｰﾐｱﾑ\ﾐｰﾐｻ 45 ﾐｾﾑﾐｺﾐｾﾐｲ. ﾐ ﾑ采ひｾﾐｼﾑ ﾐｼﾐｾﾐｼﾐｵﾐｽﾑび ﾐｲﾐｿﾐｵﾑ\ﾐｵﾐｴﾐｸ ﾑひｾﾐｻﾑ糊ｺﾐｾ Southampton, Manchester United, Manchester City ﾐｸ Chelsea.</t>
-  </si>
-  <si>
-    <t>Southampton ﾐｸﾐｼﾐｵﾐｵﾑ 46 ﾐｾﾑﾐｺﾐｾﾐｲ ﾐｲ ﾐｰﾐｺﾑひｸﾐｲﾐｵ.</t>
-  </si>
-  <si>
-    <t>italy_serie-a/2016-2017/2017-01-21 - 22-45 AC Milan 1 - 2 Napoli</t>
-  </si>
-  <si>
-    <t>19:10</t>
-  </si>
-  <si>
-    <t>ﾐ嶢ｾﾑ\ﾐｵﾐｽﾑ⇦ｾ ﾐ｢ﾐｾﾐｽﾐｽﾐｵﾐｻﾐｻﾐｸ, ﾐｲﾐｾﾑ ﾐｲﾐｾﾐｷﾐｼﾐｾﾐｶﾐｽﾐｾﾑﾑび ﾐｾ ﾐｽﾐｵﾐｼ ﾐｿﾐｾﾐｱﾐｵﾑﾐｵﾐｴﾐｾﾐｲﾐｰﾑび, ﾐｾﾐｽ ﾐｺﾐｾﾑﾐｽﾑσｻﾑﾑ ﾐｼﾑ肖ﾐｰ, ﾐｿﾐｾﾑひｾﾐｼﾑ ﾑﾑひｾ ﾐｲ ﾐｾﾑﾑひｰﾐｻﾑ糊ｽﾐｾﾐｼ, ﾐｺﾐｾﾐｽﾐｵﾑﾐｽﾐｾ, ﾐｱﾐｵﾐｷ ﾐｽﾐｰﾐｿﾑ\ﾑ紹ｶﾐｵﾐｽﾐｸﾑ ﾐｸﾐｳﾑ\ﾐｰﾐｵﾑ ﾐｾﾐｱﾐｾﾑ\ﾐｾﾐｽﾐｰ ﾐ斷ｰﾐｿﾐｾﾐｻﾐｵ, ﾐｽﾐｾ窶ｦ ﾐ寅ｰﾐｼﾑ威ｵﾐｺ ﾐｴﾐｵﾐｹﾑﾑひｲﾑσｵﾑ, ﾐｾﾐｱﾑ\ﾐｰﾑひｸﾑひｵ ﾐｲﾐｽﾐｸﾐｼﾐｰﾐｽﾐｸﾐｵ, ﾐｲﾐｾﾑ ﾑﾐｵﾐｹﾑﾐｰﾑ ﾐｲﾑひｾﾑ\ﾐｾﾐｵ ﾐｺﾐｰﾑﾐｰﾐｽﾐｸﾐｵ ﾑﾐｵﾐｱﾐｵ ﾐｿﾐｾﾐｷﾐｲﾐｾﾐｻﾐｸﾐｻ, ﾐｴﾐｾ ﾑ采ひｾﾐｳﾐｾ ﾐｲ ﾐｾﾐｴﾐｽﾐｾ. ﾐ厘ｴﾐｵﾑﾑ ﾐｽﾐｰ ﾐｽﾐｵﾐｴﾐｵﾐｻﾐｵ ﾐｼﾑ ﾐｴﾐｾﾑﾐｼﾐｾﾑび\ﾐｸﾐｼ ﾐｰﾑひｰﾐｺﾑ, ﾑﾑひｾﾐｱﾑ ﾐｾﾑひｲﾐｻﾐｵﾑﾑ袴ﾑ ﾐｽﾐｰ ﾐｾﾐｱﾑﾑひｾﾑ肖ひｵﾐｻﾑ袴ﾑひｲﾐｰ ﾐｲﾐｽﾐｵ ﾐｸﾐｳﾑ\ﾐｾﾐｲﾐｾﾐｹ, ﾐｽﾐｾ ﾐｲﾐｽﾐｵ ﾐｲﾑ\ﾐｵﾐｼﾐｵﾐｽﾑ, ﾑひｵﾐｼ ﾐｽﾐｵ ﾐｼﾐｵﾐｽﾐｵﾐｵ.</t>
-  </si>
-  <si>
-    <t>ﾐ頒ｸﾐｵﾐｳﾐｾ ﾐ慴ｰﾑ\ﾐｰﾐｴﾐｾﾐｽﾐｰ ﾐｿﾐｾﾑﾐｵﾑひｸﾐｻ ﾐ斷ｵﾐｰﾐｿﾐｾﾐｻﾑ, ﾐｿﾑ\ﾐｸﾐｽﾑ紹ｲ ﾑτﾐｰﾑﾑひｸﾐｵ ﾐｲ ﾑ⇦ｵﾑ\ﾐｵﾐｼﾐｾﾐｽﾐｸﾐｸ, ﾐｺﾐｾﾑひｾﾑ\ﾐｰﾑ ﾑﾐｴﾐｵﾐｻﾐｰﾐｻﾐｰ ﾐｵﾐｳﾐｾ, ﾑﾐｾﾐｱﾑﾑひｲﾐｵﾐｽﾐｽﾐｾ ﾐｳﾐｾﾐｲﾐｾﾑ\ﾑ, ﾑﾐｾﾑ\ﾐｼﾐｰﾐｻﾑ糊ｽﾐｾ ﾑﾐｸﾐｼﾐｲﾐｾﾐｻﾐｾﾐｼ ﾐｳﾐｾﾑ\ﾐｾﾐｴﾐｰ ﾐｸ ﾐｺﾐｾﾐｼﾐｰﾐｽﾐｴﾑ.</t>
-  </si>
-  <si>
-    <t>03:11</t>
-  </si>
-  <si>
-    <t>03:22</t>
-  </si>
-  <si>
-    <t>And here's Cahill. Certainly there hasn't been too much about this game talked about down in the Cobham area in Surrey at the press conference with Jose Mourinho on Friday.</t>
-  </si>
-  <si>
-    <t>It was all about other matters, medical matters.</t>
-  </si>
-  <si>
-    <t>spain_laliga/2015-2016/2016-03-20 - 22-30 Real Madrid 4 - 0 Sevilla</t>
-  </si>
-  <si>
-    <t>21:40</t>
-  </si>
-  <si>
-    <t>21:45</t>
-  </si>
-  <si>
-    <t>La vuelve Cristiano. Sergio Rico.</t>
-  </si>
-  <si>
-    <t>Gran parada de Sergio Rico y gran remate de Cristiano en carrera.</t>
-  </si>
-  <si>
-    <t>spain_laliga/2016-2017/2016-08-28 - 21-15 Ath Bilbao 0 - 1 Barcelona</t>
-  </si>
-  <si>
-    <t>28:57</t>
-  </si>
-  <si>
-    <t>29:01</t>
-  </si>
-  <si>
-    <t>Ves? Capﾃｭtulo de obstrucciﾃｳn.</t>
-  </si>
-  <si>
-    <t>Capﾃｭtulo de falta.</t>
-  </si>
-  <si>
-    <t>england_epl/2016-2017/2016-08-14 - 18-00 Arsenal 3 - 4 Liverpool</t>
-  </si>
-  <si>
-    <t>37:14</t>
-  </si>
-  <si>
-    <t>37:20</t>
-  </si>
-  <si>
-    <t>Mane-Alai not really going for it. Believe it or not, Arsene Wenger facing Liverpool for the 50th time as manager of Arsenal.</t>
-  </si>
-  <si>
-    <t>Some Premier League managers don't get 50 games in total.</t>
-  </si>
-  <si>
-    <t>england_epl/2015-2016/2016-03-02 - 23-00 Liverpool 3 - 0 Manchester City</t>
-  </si>
-  <si>
-    <t>13:57</t>
-  </si>
-  <si>
-    <t>14:07</t>
-  </si>
-  <si>
-    <t>There's certainly more flow about Liverpool, though, in the early moments of this one. Yeah, definitely the better start from Liverpool, down that right-hand side in particular.</t>
-  </si>
-  <si>
-    <t>Neat passing, as soon as Origi plays out wide, he's got to get in the box, and I think Firmino was just in an offside position, even if he had latched onto it.</t>
-  </si>
-  <si>
-    <t>40:57</t>
-  </si>
-  <si>
-    <t>Be very careful. Well they've had discipline let them down recently.</t>
-  </si>
-  <si>
-    <t>Their home defeat against Bournemouth.</t>
-  </si>
-  <si>
-    <t>europe_uefa-champions-league/2014-2015/2014-11-04 - 20-00 Zenit Petersburg 1 - 2 Bayer Leverkusen</t>
-  </si>
-  <si>
-    <t>11:54</t>
-  </si>
-  <si>
-    <t>Dani immer noch. Und dann war der Portugiese als letzter dran.</t>
-  </si>
-  <si>
-    <t>Gebﾃｼrtiger Brasilianer beim FC Porto wurde er eingebﾃｼrgert.</t>
-  </si>
-  <si>
-    <t>39:19</t>
-  </si>
-  <si>
-    <t>39:24</t>
-  </si>
-  <si>
-    <t>Montero, a real buzz around the stadium when he picks up possession. Miaska, will he foul him?</t>
-  </si>
-  <si>
-    <t>Yes, he did, and that'll be a yellow card for the American centre-half.</t>
-  </si>
-  <si>
-    <t>england_epl/2015-2016/2016-03-20 - 19-00 Manchester City 0 - 1 Manchester United</t>
-  </si>
-  <si>
-    <t>10:07</t>
-  </si>
-  <si>
-    <t>10:20</t>
-  </si>
-  <si>
-    <t>There's no slouch, but over five yards, Aguero's so quick. Poor free kick from Yaya Toure.</t>
-  </si>
-  <si>
-    <t>City looking for their 50th derby win in all major competitions, United 170.</t>
-  </si>
-  <si>
-    <t>italy_serie-a/2016-2017/2016-11-26 - 22-45 Empoli 1 - 4 AC Milan</t>
-  </si>
-  <si>
-    <t>02:51</t>
-  </si>
-  <si>
-    <t>02:58</t>
-  </si>
-  <si>
-    <t>ﾐ斷ｰ ﾑﾐｻﾐｰﾐｽﾐｳﾐｰﾑ ﾐｸﾐｳﾑ\ﾐｰﾑ紗 20-ﾐｹ ﾐ侑ｳﾐｽﾐｰﾑ⇦ｸﾑ ﾐ籍ｱﾐｱﾐｰﾑ ﾐｸ 2-ﾐｹ ﾐ慴ｰﾑひｸﾑ ﾐ頒ｵﾑ威ｸﾐｻﾐｸ. ﾐ旃, ﾐｺﾑﾑひｰﾑひｸ, ﾐｿﾐｾ ﾐｻﾐｵﾐｲﾐｾﾐｼﾑ ﾑﾐｻﾐｰﾐｽﾐｳﾑ, ﾐｿﾐｾ ﾑﾐｻﾐｰﾐｽﾐｳﾑ ﾐ慴ｰﾑひｸﾑ ﾐ頒ｵﾑ威ｸﾐｻﾐｸ ﾐｿﾑ\ﾐｸﾑ威ｻﾐｰ ﾑ采ひｰ ﾐｰﾑひｰﾐｺﾐｰ.</t>
-  </si>
-  <si>
-    <t>ﾐ ﾐｿﾐｾﾐｻﾑσｷﾐｰﾑ禍ｸﾑひｵ 73-ﾐｹ ﾐｽﾐｾﾐｼﾐｵﾑ\ ﾐ慴ｰﾐｽﾑτ災ｻﾑ ﾐ嶢ｾﾐｺﾐｾﾑひｵﾐｻﾐｻﾐｸ, 80-ﾐｹ ﾐ慴ｰﾑ\ﾐｸﾐｾ ﾐ渙ｰﾑ威ｵﾐｻﾐｵﾐｲﾐｸﾑ.</t>
-  </si>
-  <si>
-    <t>europe_uefa-champions-league/2015-2016/2015-11-03 - 22-45 Benfica 2 - 1 Galatasaray</t>
-  </si>
-  <si>
-    <t>44:06</t>
-  </si>
-  <si>
-    <t>44:10</t>
-  </si>
-  <si>
-    <t>Benfica, Connors. ﾄｰlk yarﾄｱna son dakika.</t>
-  </si>
-  <si>
-    <t>Tansiyonu yﾃｼkseldiﾄ殃 anlar yaﾅ歛nﾄｱyor Luizﾃ｣o ile.</t>
-  </si>
-  <si>
-    <t>italy_serie-a/2016-2017/2017-05-07 - 21-45 AC Milan 1 - 4 AS Roma</t>
-  </si>
-  <si>
-    <t>28:48</t>
-  </si>
-  <si>
-    <t>29:02</t>
-  </si>
-  <si>
-    <t>ﾐ ﾐｲﾐｾﾑ, ﾐｺﾐｰﾐｺ ﾐｲﾑﾐｵﾐｳﾐｴﾐｰ, ﾐｭﾐｴﾐｸﾐｽ ﾐ頒ｶﾐｵﾐｺﾐｾ ﾐｽﾐｵ ﾑτﾐｿﾐｵﾐｲﾐｰﾐｵﾑ ﾐｲﾑ巾ｸﾐｳﾑ\ﾐｰﾑび. ﾐ斷ｾ ﾐｽﾐｰﾑﾑひｾﾐｻﾑ糊ｺﾐｾ ﾐｵﾐｼﾑ ﾐｽﾐｵ ﾑﾐｲﾐｰﾑひｰﾐｵﾑ ﾑﾑひｰﾐｱﾐｸﾐｻﾑ糊ｽﾐｾﾑﾑひｸ, ﾑﾑひｾ ﾐｿﾐｾﾑ\ﾐｾﾐｹ ﾐｲﾑ巾ｿﾐｰﾐｴﾐｰﾐｵﾑ ﾐｸﾐｷ ﾐｸﾐｳﾑ\ﾑ.</t>
-  </si>
-  <si>
-    <t>ﾐ頒ｰ, ﾐ慴ｸﾐｻﾐｰﾐｽ ﾐｾﾑﾑひｰﾐｽﾐｵﾑびﾑ ﾐｽﾐｰ ﾑ威ｵﾑﾑひｾﾐｼ ﾐｼﾐｵﾑﾑひｵ ﾐｴﾐｰﾐｶﾐｵ ﾐｲ ﾑﾐｻﾑτﾐｰﾐｵ, ﾐｵﾑﾐｻﾐｸ ﾑﾐｵﾐｳﾐｾﾐｴﾐｽﾑ ﾐｿﾑ\ﾐｾﾐｸﾐｳﾑ\ﾐｰﾐｵﾑ.</t>
-  </si>
-  <si>
-    <t>europe_uefa-champions-league/2015-2016/2015-09-29 - 21-45 Lyon 0 - 1 Valencia</t>
-  </si>
-  <si>
-    <t>34:19</t>
-  </si>
-  <si>
-    <t>34:26</t>
-  </si>
-  <si>
-    <t>Ils avaient pourtant ﾃｩtﾃｩ avertis les Lyonnais. Et cette fois c'est sur le poteau d'Anthony Lopez.</t>
-  </si>
-  <si>
-    <t>Deux fois les mﾃｪmes pour deux fois quasiment un but.</t>
-  </si>
-  <si>
-    <t>germany_bundesliga/2014-2015/2015-05-09 - 16-30 Dortmund 2 - 0 Hertha Berlin</t>
-  </si>
-  <si>
-    <t>19:14</t>
-  </si>
-  <si>
-    <t>Drﾃｼckt sich auch im Torschussverhﾃ､ltnis aus. Bislang aktuell Dortmund mit 4, bei Hertha steht dann noch die 0.</t>
-  </si>
-  <si>
-    <t>Da ist der Armenia gegen Langkamp gestoppt.</t>
-  </si>
-  <si>
-    <t>europe_uefa-champions-league/2015-2016/2015-09-29 - 21-45 Arsenal 2 - 3 Olympiakos Piraeus</t>
-  </si>
-  <si>
-    <t>24:43</t>
-  </si>
-  <si>
-    <t>24:54</t>
-  </si>
-  <si>
-    <t>Raczej jﾄ wprowadza. A teraz proszﾄ dﾅＶgi przerzut.</t>
-  </si>
-  <si>
-    <t>Niecelny, choﾄ Olympiacos caﾅＺ czas przy piﾅＤe.</t>
-  </si>
-  <si>
-    <t>europe_uefa-champions-league/2014-2015/2015-02-17 - 22-45 Paris SG 1 - 1 Chelsea</t>
-  </si>
-  <si>
-    <t>Once he gets across the halfway line and he makes his decision, he really wants to drive into the box. He's extremely dangerous.</t>
-  </si>
-  <si>
-    <t>He was reportedly nursing an injury which made him a doubt for tonight.</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>09:11</t>
-  </si>
-  <si>
-    <t>Es fuera de juego, lo seﾃｱala el juez de lﾃｭnea. En el momento en el que Cristiano remataba se queja el futbolista portuguﾃｩs que habﾃｭa visto entrar la pelota para convertirse en el 0 a 1.</t>
-  </si>
-  <si>
-    <t>Pero no lo dudﾃｳ el asistente, la jugada no valﾃｭa, el gol no sube el marcador.</t>
-  </si>
-  <si>
-    <t>england_epl/2016-2017/2016-12-11 - 19-30 Liverpool 2 - 2 West Ham</t>
-  </si>
-  <si>
-    <t>19:38</t>
-  </si>
-  <si>
-    <t>19:49</t>
-  </si>
-  <si>
-    <t>It was extraordinary what happened down at Bournemouth. It's only the second time in Liverpool's Premier League history that they've thrown away a 2-0 half-time lead.</t>
-  </si>
-  <si>
-    <t>Both times have been this year, and both times on the south coast, it was Southampton at the back end of last season, and Bournemouth a week ago.</t>
-  </si>
-  <si>
-    <t>europe_uefa-champions-league/2016-2017/2016-09-28 - 21-45 Napoli 4 - 2 Benfica</t>
-  </si>
-  <si>
-    <t>00:18</t>
-  </si>
-  <si>
-    <t>ﾐ｢ﾑτ ﾐｶﾐｵ ﾐｷﾐｰﾐｱﾐｸﾑ\ﾐｰﾑ紗 ﾐｽﾐｵﾐｱﾐｻﾐｵﾑひｰﾐｽﾑ⇧ ﾐｼﾑ肖 ﾑﾐｵﾐｱﾐｵ ﾐｸ ﾐｲﾐｿﾐｵﾑ\ﾐｵﾐｴ ﾐｽﾐｰ ﾐ慴ｸﾐｻﾐｸﾐｺﾐｰ. ﾐ慴ｸﾐｻﾐｸﾐｺ ﾐｿﾑ\ﾐｸﾐｽﾐｸﾐｼﾐｰﾐｵﾑ ﾐｼﾑ肖 ﾐｲ ﾑび\ﾐｾﾑひｽﾐｾﾐｹ.</t>
-  </si>
-  <si>
-    <t>ﾐ績\ﾐｺﾐｰﾐｴﾑ糊ｵﾐｲ ﾐ慴ｸﾐｻﾐｸﾐｺ ﾐｿﾐｵﾑ\ﾐｲﾑ巾ｹ ﾑσｴﾐｰﾑ\ ﾐｿﾐｾﾐｲﾐｾﾑ\ﾐｾﾑひｾﾐｼ ﾐｽﾐｰ 17 ﾑﾐｵﾐｺﾑσｽﾐｴﾐｵ ﾐｽﾐｰﾐｽﾐｵﾑﾐｵﾐｽ.</t>
-  </si>
-  <si>
-    <t>16:43</t>
-  </si>
-  <si>
-    <t>16:52</t>
-  </si>
-  <si>
-    <t>ﾐ斷ｸﾐｺﾐｾﾐｻﾐｰﾐｹ ﾐ慴ｰﾐｺﾑﾐｸﾐｼﾐｾﾐｲﾐｸﾑ, ﾐｺﾑﾑひｰﾑひｸ, ﾐｴﾐｾﾐｱﾐｰﾐｲﾐｸﾐｻ ﾑ\ﾐｾﾑﾑ. ﾐ慴ｵﾑび\ 93.</t>
-  </si>
-  <si>
-    <t>ﾐ榧ｽ ﾐｲ ﾐｲﾑ錦ﾐｾﾑび ﾐｸ ﾑ ﾐｽﾐｸﾐｼ, ﾐｼﾐｾﾐｶﾐｵﾑ ﾐｱﾑ錦び, ﾐｴﾐｰﾐｶﾐｵ ﾐｻﾑτﾑ威ｵ ﾐｲ ﾑ采ひｾﾐｼ ﾑﾐｼﾑ錦ﾐｻﾐｵ, ﾑﾐｵﾐｼ ﾑ ﾐ ﾐｰﾑσｽﾐｸﾐｼ ﾐｭﾐｻﾑ糊ｱﾐｸﾐｾﾐｻﾐｵﾐｼ.</t>
-  </si>
-  <si>
-    <t>england_epl/2015-2016/2015-11-07 - 18-00 Manchester United 2 - 0 West Brom</t>
-  </si>
-  <si>
-    <t>10:38</t>
-  </si>
-  <si>
-    <t>10:50</t>
-  </si>
-  <si>
-    <t>Combina Smolin con Michael Carrick. Martial protege, suelta el balﾃｳn bien para Marcos Rojo.</t>
-  </si>
-  <si>
-    <t>Llega Alﾃｭngar, el que aparece en escena, posesiﾃｳn larguﾃｭsima, posesiﾃｳn prﾃ｡cticamente interminable desde que comenzﾃｳ el partido.</t>
-  </si>
-  <si>
-    <t>23:22</t>
-  </si>
-  <si>
-    <t>23:36</t>
-  </si>
-  <si>
-    <t>Veremos en el descanso si hay alguna modificaciﾃｳn en el Deportivo. Pero ha estado mucho tiempo calentando arriba por el golpe que se ha llevado su compaﾃｱero en esa acciﾃｳn con Luis Suﾃ｡rez.</t>
-  </si>
-  <si>
-    <t>Un jugador que por cierto, aunque fuera de forma mﾃ｡s o menos vaga, acabﾃｳ sonando en ciertas informaciones periodﾃｭsticas para incorporarse al FC Barcelona este pasado verano.</t>
-  </si>
-  <si>
-    <t>spain_laliga/2014-2015/2015-05-17 - 20-00 Atl. Madrid 0 - 1 Barcelona</t>
-  </si>
-  <si>
-    <t>17:40</t>
-  </si>
-  <si>
-    <t>17:45</t>
-  </si>
-  <si>
-    <t>Puede disparar. La toca a la frontal.</t>
-  </si>
-  <si>
-    <t>Ahﾃｭ va el disparo de Messi.</t>
-  </si>
-  <si>
-    <t>spain_laliga/2016-2017/2017-04-02 - 17-15 Real Madrid 3 - 0 Alaves</t>
-  </si>
-  <si>
-    <t>27:17</t>
-  </si>
-  <si>
-    <t>27:26</t>
-  </si>
-  <si>
-    <t>Se la saque de banda para Danilo. Algﾃｺn detalle, Josﾃｩ, que nos llega de modo de informaciﾃｳn sobre la situaciﾃｳn de Varane.</t>
-  </si>
-  <si>
-    <t>Molestias en el muslo izquierdo.</t>
-  </si>
-  <si>
-    <t>england_epl/2016-2017/2017-05-06 - 17-00 Leicester 3 - 0 Watford</t>
-  </si>
-  <si>
-    <t>30:50</t>
-  </si>
-  <si>
-    <t>31:02</t>
-  </si>
-  <si>
-    <t>He's just taking too many touches, slowing the game down, which allows Watford to get back into the shape. Questions about the future of the Watford head coach, Walter Mazzarri.</t>
-  </si>
-  <si>
-    <t>There's been one or two stories this week suggesting that Leicester might struggle to hold on to Riyad Mahrez and also Schmeichel and Gray.</t>
-  </si>
-  <si>
-    <t>spain_laliga/2014-2015/2015-04-25 - 17-00 Espanyol 0 - 2 Barcelona</t>
-  </si>
-  <si>
-    <t>26:40</t>
-  </si>
-  <si>
-    <t>27:03</t>
-  </si>
-  <si>
-    <t>I'm hoping Luis Enrique gets the credit he deserves and I bang on about it quite a bit but... The way this Barca side has been pressing of late against PSG today, they just look that much better than last year.</t>
-  </si>
-  <si>
-    <t>The thing is, last season and the season before you got the impression in the last two or three months for example 2013 Barca played Bayern in the last 7-0 in aggregate got the impression of a side running on empty even though they ended up winning the league.</t>
-  </si>
-  <si>
-    <t>germany_bundesliga/2016-2017/2017-04-15 - 16-30 Dortmund 3 - 1 Eintracht Frankfurt</t>
-  </si>
-  <si>
-    <t>18:49</t>
-  </si>
-  <si>
-    <t>Also die Frankfurter Hintermannschaft unheimlich erratisch unterwegs. In diesen ersten 18,5 Minuten hier nochmal die Aktion von Shinji Kagawa, der dann letztendlich an Radetzky scheitert, weil sie nicht wach genug sind und eben auf diesen zweiten Ball nicht drauf gehen, die Frankfurter.</t>
-  </si>
-  <si>
-    <t>Freddy Bobic hat ja drei Jahre fﾃｼr den BVB gespielt, besser gesagt zweieinhalb.</t>
-  </si>
-  <si>
-    <t>italy_serie-a/2016-2017/2017-02-19 - 20-00 AS Roma 4 - 1 Torino</t>
-  </si>
-  <si>
-    <t>21:12</t>
-  </si>
-  <si>
-    <t>21:20</t>
-  </si>
-  <si>
-    <t>ﾐ斷ｰﾑﾐｺﾐｾﾐｻﾑ糊ｺﾐｾ ﾑ ﾐｿﾐｾﾐｼﾐｽﾑ. ﾐ漬ｾﾐｷﾐｲﾑ\ﾐｰﾑ禍ｰﾑ肖ﾑ ﾐｺ ﾐｼﾐｾﾐｼﾐｵﾐｽﾑび ﾑ ﾐｳﾐｾﾐｻﾐｾﾐｼ, ﾐｲﾑﾐｵ-ﾑひｰﾐｺﾐｸ ﾐｴﾐｾﾑび紹ｽﾑσｻﾑﾑ ﾐｴﾐｾ ﾐｼﾑ肖ﾐｰ ﾐ頒ｶﾐｾ ﾐ･ﾐｰﾑ\ﾑ.</t>
-  </si>
-  <si>
-    <t>ﾐ斷ｾ ﾐｲﾐｾﾑ ﾑ采ひｾﾑ ﾐｾﾑびﾐｺﾐｾﾐｺ ﾐｾﾑ ﾐｳﾐｰﾐｷﾐｾﾐｽﾐｰ, ﾐｾﾐｽ ﾐｵﾑ禍ｵ ﾐｴﾐｾﾐｿﾐｾﾐｻﾐｽﾐｸﾑひｵﾐｻﾑ糊ｽﾐｾﾐｵ ﾑτﾐｺﾐｾﾑ\ﾐｵﾐｽﾐｸﾐｵ ﾐｿﾑ\ﾐｸﾐｴﾐｰﾐｻ.</t>
-  </si>
-  <si>
-    <t>europe_uefa-champions-league/2014-2015/2015-04-14 - 21-45 Juventus 1 - 0 Monaco</t>
-  </si>
-  <si>
-    <t>06:08</t>
-  </si>
-  <si>
-    <t>06:12</t>
-  </si>
-  <si>
-    <t>Carlos Tevez. You can't give him that shooting space outside the area.</t>
-  </si>
-  <si>
-    <t>Good stop.</t>
-  </si>
-  <si>
-    <t>england_epl/2016-2017/2016-11-26 - 18-00 Liverpool 2 - 0 Sunderland</t>
-  </si>
-  <si>
-    <t>22:22</t>
-  </si>
-  <si>
-    <t>Sloppy start by Liverpool so far. Not playing with their usual zip.</t>
-  </si>
-  <si>
-    <t>And we've seen them being a little bit fragile at set pieces this season.</t>
-  </si>
-  <si>
-    <t>england_epl/2016-2017/2017-04-26 - 21-45 Arsenal 1 - 0 Leicester</t>
-  </si>
-  <si>
-    <t>13:25</t>
-  </si>
-  <si>
-    <t>13:35</t>
-  </si>
-  <si>
-    <t>Okay, he's got a Premier League winner's medal in the bag and England international, but still, I think he could go to a higher placed team than this one. And he wouldn't be out of place.</t>
-  </si>
-  <si>
-    <t>He took the big decision to leave Manchester United because there are so many top quality midfielders in the queue ahead of him at Old Trafford.</t>
-  </si>
-  <si>
-    <t>italy_serie-a/2016-2017/2017-05-20 - 21-45 Napoli 4 - 1 Fiorentina</t>
-  </si>
-  <si>
-    <t>31:21</t>
-  </si>
-  <si>
-    <t>31:30</t>
-  </si>
-  <si>
-    <t>ﾐ渙ｾ ﾑﾑτひｸ, ﾐｼﾐｾﾐｼﾐｵﾐｽﾑひｾﾐｲ ﾐｽﾐｵ ﾐｱﾑ巾ｻﾐｾ. ﾐ頒ｰ, ﾑσｴﾐｰﾑ\, ﾐｿﾐｾﾑﾐｻﾐｵ ﾐｺﾐｾﾑひｾﾑ\ﾐｾﾐｳﾐｾ ﾐ ﾐｵﾐｹﾐｽﾐｰ ﾑﾐｲﾐｾﾑ ﾐｺﾐｾﾐｼﾐｰﾐｽﾐｴﾑ ﾑﾐｿﾐｰﾑ, ﾐｱﾑ巾ｻ.</t>
-  </si>
-  <si>
-    <t>ﾐ斷ｾ ﾐｲ ﾐｾﾑﾑひｰﾐｻﾑ糊ｽﾐｾﾐｼ ﾐｼﾐｾﾐｼﾐｵﾐｽﾑひｾﾐｲ ﾐｿﾐｾﾐｺﾐｰ ﾑﾑひｾ ﾑ ﾐ､ﾐｸﾐｾﾑ\ﾐｵﾐｽﾑひｸﾐｽﾑ ﾐｽﾐｵﾑ.</t>
-  </si>
-  <si>
-    <t>france_ligue-1/2014-2015/2015-04-05 - 22-00 Marseille 2 - 3 Paris SG</t>
-  </si>
-  <si>
-    <t>28:04</t>
-  </si>
-  <si>
-    <t>28:19</t>
-  </si>
-  <si>
-    <t>Berati turning into trouble. It's intense at the moment but the final ball lacking as we saw there with Florian Thauvin.</t>
-  </si>
-  <si>
-    <t>Marseille yet to create a genuine chance.</t>
-  </si>
-  <si>
-    <t>europe_uefa-champions-league/2014-2015/2015-05-05 - 21-45 Juventus 2 - 1 Real Madrid</t>
-  </si>
-  <si>
-    <t>13:16</t>
-  </si>
-  <si>
-    <t>13:34</t>
-  </si>
-  <si>
-    <t>The same during his spell as coach at Milan. They weren't keen on him when he first arrived were they?</t>
-  </si>
-  <si>
-    <t>No he was a very unpopular successor to Antonio Conte.</t>
-  </si>
-  <si>
-    <t>43:15</t>
-  </si>
-  <si>
-    <t>43:19</t>
-  </si>
-  <si>
-    <t>En revanche, il faudra surveiller au deuxiﾃｨme poteau parce que ﾃｧa va plonger ﾃｩvidemment vers Tchek. Olbrighton et Morgane !</t>
-  </si>
-  <si>
-    <t>C'ﾃｩtait exactement ﾃｧa au deuxiﾃｨme poteau.</t>
-  </si>
-  <si>
-    <t>germany_bundesliga/2014-2015/2015-05-09 - 16-30 Bayern Munich 0 - 1 FC Augsburg</t>
-  </si>
-  <si>
-    <t>00:32</t>
-  </si>
-  <si>
-    <t>00:41</t>
-  </si>
-  <si>
-    <t>En el Augsburgo, Hitz es el portero. Berag, lateral derecho, el coreano Hong junto a Klavan en el centro de la zaga con Babﾃ｡ a la izquierda.</t>
-  </si>
-  <si>
-    <t>Centro del campo para Kohl, Bayern y Altingdorf con Feulner y Svain en las bandas.</t>
-  </si>
-  <si>
-    <t>39:03</t>
-  </si>
-  <si>
-    <t>39:13</t>
-  </si>
-  <si>
-    <t>ﾐ渙ｵﾑﾐｺﾐｰﾑ\ﾐｰ ﾐｱﾑ巾ｻﾐｰ ﾐｾﾑ尉び\ﾐｰﾑﾐｾﾐｲﾐｰﾐｽﾐｰ ﾑ尉び\ﾐｰﾑﾐｽﾑ巾ｼ ﾑσｴﾐｰﾑ\ﾐｾﾐｼ. ﾐ旃 ﾐｲﾐｾﾑ ﾑﾐｵﾐｹﾑﾐｰﾑ ﾐｵﾑ禍ｵ ﾐｾﾐｴﾐｸﾐｽ ﾑ尉び\ﾐｰﾑﾐｽﾐｾﾐｹ.</t>
-  </si>
-  <si>
-    <t>ﾐ慯σｽﾑひｰﾑ\ﾐｸ, ﾐｿﾐｾ-ﾐｼﾐｾﾐｵﾐｼﾑ, ﾐｿﾐｾﾐｻﾑτﾐｰﾐｵﾑ ﾐｲﾑひｾﾑ\ﾑτ ﾐｶﾐｵﾐｻﾑびτ ﾐｺﾐｰﾑ\ﾑひｾﾑﾐｺﾑ ﾐｲ ﾑ采ひｾﾐｼ ﾐｼﾐｰﾑびﾐｵ.</t>
-  </si>
-  <si>
-    <t>germany_bundesliga/2015-2016/2016-01-31 - 19-30 Bayern Munich 2 - 0 Hoffenheim</t>
-  </si>
-  <si>
-    <t>42:11</t>
-  </si>
-  <si>
-    <t>42:19</t>
-  </si>
-  <si>
-    <t>Es ist eine Schwﾃ､che. Im Schnitt ist es so, dass die Bayern pro Partie zwei Torschﾃｼsse zulassen.</t>
-  </si>
-  <si>
-    <t>Neuer ist gefordert.</t>
-  </si>
-  <si>
-    <t>30:54</t>
-  </si>
-  <si>
-    <t>30:56</t>
-  </si>
-  <si>
-    <t>Et l'autre joueur dans son registre. Vous pouvez prendre Zidane.</t>
-  </si>
-  <si>
-    <t>Qui n'avait pas trﾃｨs trﾃｨs beau moment de but.</t>
-  </si>
-  <si>
-    <t>england_epl/2016-2017/2017-01-02 - 18-00 Sunderland 2 - 2 Liverpool</t>
-  </si>
-  <si>
-    <t>30:11</t>
-  </si>
-  <si>
-    <t>30:18</t>
-  </si>
-  <si>
-    <t>Gullopoci, I think the player who was flagged off. Yeah, second time he's been well offside for me.</t>
-  </si>
-  <si>
-    <t>Just dipping in, you can see another clear one.</t>
-  </si>
-  <si>
-    <t>38:35</t>
-  </si>
-  <si>
-    <t>38:40</t>
-  </si>
-  <si>
-    <t>Barca trying as usual to pass Roma to death. 70% to 30% possession.</t>
-  </si>
-  <si>
-    <t>1-1 on goals.</t>
-  </si>
-  <si>
-    <t>england_epl/2016-2017/2016-08-20 - 17-00 Burnley 2 - 0 Liverpool</t>
-  </si>
-  <si>
-    <t>05:14</t>
-  </si>
-  <si>
-    <t>05:17</t>
-  </si>
-  <si>
-    <t>Sam Boatsey. Not often we see that.</t>
-  </si>
-  <si>
-    <t>Andre Gray passing to Boatse and Boatse scoring.</t>
-  </si>
-  <si>
-    <t>europe_uefa-champions-league/2014-2015/2015-02-24 - 22-45 Manchester City 1 - 2 Barcelona</t>
-  </si>
-  <si>
-    <t>Pellegrini's got some work to do at half-time. Hopefully they get to half-time at 2-0.</t>
-  </si>
-  <si>
-    <t>Because the way it's going, Barcelona are completely dominating possession like we thought they would.</t>
-  </si>
-  <si>
-    <t>germany_bundesliga/2015-2016/2015-09-12 - 16-30 Bayern Munich 2 - 1 FC Augsburg</t>
-  </si>
-  <si>
-    <t>19:44</t>
-  </si>
-  <si>
-    <t>19:56</t>
-  </si>
-  <si>
-    <t>Ganz stark. Der zuletzt beim 0-1 gegen Ingolstadt beim Gegentor nicht gut aussah.</t>
-  </si>
-  <si>
-    <t>Vertrag verlﾃ､ngert bis 2019.</t>
-  </si>
-  <si>
-    <t>italy_serie-a/2016-2017/2017-01-22 - 22-45 AS Roma 1 - 0 Cagliari</t>
-  </si>
-  <si>
-    <t>07:34</t>
-  </si>
-  <si>
-    <t>ﾐ｣ ﾐｼﾑ肖ﾐｰ ﾐ頒ｰﾐｽﾐｸﾑ災ｻﾑ ﾐ頒ｵﾑ\ﾐｾﾑﾐｸ. ﾐ漬ｾﾑﾑ糊ｼﾐｰﾑ ﾐｼﾐｸﾐｽﾑτひｰ ﾐｼﾐｰﾑびﾐｰ.</t>
-  </si>
-  <si>
-    <t>ﾐ ﾐｾﾐｼﾐｰ ﾐ墟ｰﾐｻﾐｸﾑ\ﾐｸ ﾐｿﾐｾﾐｺﾐｰ 0-0.</t>
-  </si>
-  <si>
-    <t>europe_uefa-champions-league/2015-2016/2015-09-15 - 21-45 Real Madrid 4 - 0 Shakhtar Donetsk</t>
-  </si>
-  <si>
-    <t>23:16</t>
-  </si>
-  <si>
-    <t>Pelota que juega en la frontal del ﾃ｡rea, viene Piatov, el balcﾃｳn, desde ahﾃｭ sale ahora el meta ucraniano, la pone arriba, larga, buscando la espalda de Ramos, va a saltar, mete la cabeza a Ramos, cayﾃｳ Ramos, recupera Marcelo. Marcelo contra Marlos, la juega arriba, el balﾃｳn dividido lo quiere cazar Cristiano, pero se lo va a llevar Fred, recupera Shakhtar.</t>
-  </si>
-  <si>
-    <t>No es fﾃ｡cil quitarle la pelota al Shakhtar, es mﾃ｡s fﾃ｡cil apretarles arriba y quizﾃ｡s quitarle el balﾃｳn a los centrales, a los defensas en inicio de juego, que a los jugadores de arriba, porque todos tienen un porcentaje muy alto de acierto en el pase, toman buenas decisiones.</t>
-  </si>
-  <si>
-    <t>europe_uefa-champions-league/2015-2016/2015-11-25 - 20-00 CSKA Moscow 0 - 2 Wolfsburg</t>
-  </si>
-  <si>
-    <t>13:59</t>
-  </si>
-  <si>
-    <t>14:08</t>
-  </si>
-  <si>
-    <t>A member of the team that won the Bundesliga and has competed in the Champions League. The likes of Edin Dzeko and Graffiti.</t>
-  </si>
-  <si>
-    <t>They finished third in their group under Armin Vey.</t>
-  </si>
-  <si>
-    <t>04:33</t>
-  </si>
-  <si>
-    <t>04:41</t>
-  </si>
-  <si>
-    <t>ﾐ ﾑσｴﾐｸ ﾐ孟ｵﾑﾑひｵﾑ ﾐｷﾐｰﾐｱﾐｸﾐｻ ﾐｲ ﾐｲﾑひｾﾑ\ﾐｾﾐｼ ﾑひｰﾐｹﾐｼﾐｵ. ﾐ ﾐｲ ﾐｾﾐｱﾑ禍ｵﾐｼ, ﾐｲﾐｾﾑ ﾐｾﾐｽ ﾑﾐｵﾐｹﾑﾐｰﾑ ﾐｽﾐｰ ﾐｲﾐｰﾑ威ｸﾑ ﾑ災ｺﾑ\ﾐｰﾐｽﾐｰﾑ.</t>
-  </si>
-  <si>
-    <t>ﾐ｡ﾑひｰﾐｻ ﾐｳﾐｵﾑ\ﾐｾﾐｵﾐｼ ﾐ績ﾑひｰﾐｽﾐｲﾐｸﾐｻﾐｻﾑ ﾐｲ ﾑ采ひｾﾑ ﾐｲﾐｵﾑﾐｵﾑ\.</t>
-  </si>
-  <si>
-    <t>europe_uefa-champions-league/2014-2015/2015-03-11 - 22-45 Bayern Munich 7 - 0 Shakhtar Donetsk</t>
-  </si>
-  <si>
-    <t>05:19</t>
-  </si>
-  <si>
-    <t>05:27</t>
-  </si>
-  <si>
-    <t>And it is a corner off Gﾃｶtze. Shakhtar looking to make something happen here.</t>
-  </si>
-  <si>
-    <t>They have got another corner as Luis Adriano challenged.</t>
-  </si>
-  <si>
-    <t>13:27</t>
-  </si>
-  <si>
-    <t>Sﾃｭ impresiona ese 86%, por supuesto. Pero lo importante es crear ocasiones.</t>
-  </si>
-  <si>
-    <t>Son dos equipos que crean muy pocas ocasiones.</t>
-  </si>
-  <si>
-    <t>italy_serie-a/2014-2015/2015-04-25 - 21-45 Inter 2 - 1 AS Roma</t>
-  </si>
-  <si>
-    <t>31:13</t>
-  </si>
-  <si>
-    <t>31:25</t>
-  </si>
-  <si>
-    <t>He's been able to produce the results that we saw last term. The idea was to spring on the counter-attack, get the players in behind, opposing the team's back-forward.</t>
-  </si>
-  <si>
-    <t>The opponent has been sitting deep, letting Roma keep possession, so the run-out of ideas has worked.</t>
-  </si>
-  <si>
-    <t>italy_serie-a/2016-2017/2016-09-11 - 16-00 AC Milan 0 - 1 Udinese</t>
-  </si>
-  <si>
-    <t>02:54</t>
-  </si>
-  <si>
-    <t>03:07</t>
-  </si>
-  <si>
-    <t>ﾐ ﾐｲﾐｾﾑ\ﾐｾﾑひｰﾑ ﾐ績\ﾐｵﾑﾑひｸﾑ ﾐ墟ｰﾑ\ﾐｽﾐｵﾐｷﾐｸﾑ. ﾐｭﾑひｾ ﾐｲ ﾑﾐｲﾐｾﾑ ﾐｾﾑﾐｵﾑ\ﾐｵﾐｴﾑ ﾑひｾﾑ ﾑﾐｵﾐｻﾐｾﾐｲﾐｵﾐｺ, ﾐｺﾐｾﾑひｾﾑ\ﾑ巾ｹ ﾐｲ ﾑﾐｾﾑﾑひｰﾐｲﾐｵ ﾑﾐｱﾐｾﾑ\ﾐｽﾐｾﾐｹ ﾐ酉\ﾐｵﾑ⇦ｸﾐｸ ﾐｿﾑ\ﾐｾﾐｲﾐｵﾐｻ ﾑひｰﾐｺﾐｶﾐｵ ﾐｼﾐｰﾑび ﾐｾﾑひｱﾐｾﾑ\ﾐｾﾑﾐｽﾐｾﾐｳﾐｾ ﾑ⇦ｸﾐｺﾐｻﾐｰ.</t>
-  </si>
-  <si>
-    <t>ﾐ酉\ﾐｵﾐｺﾐｸ ﾐｸﾐｳﾑ\ﾐｰﾐｻﾐｸ ﾐｽﾐｰ ﾐｲﾑ巾ｵﾐｷﾐｴﾐｵ ﾐｿﾑ\ﾐｾﾑひｸﾐｲ ﾐ寅ｸﾐｱﾑ\ﾐｰﾐｻﾑひｰﾑ\ﾐｰ.</t>
-  </si>
-  <si>
-    <t>spain_laliga/2016-2017/2017-04-23 - 21-45 Real Madrid 2 - 3 Barcelona</t>
-  </si>
-  <si>
-    <t>35:05</t>
-  </si>
-  <si>
-    <t>35:07</t>
-  </si>
-  <si>
-    <t>Viene con la pelota Karim Benzema para jugar en corto sobre la posiciﾃｳn de Marcelo. Marcelo que encara.</t>
-  </si>
-  <si>
-    <t>Recorta el primero.</t>
-  </si>
-  <si>
-    <t>spain_laliga/2014-2015/2015-05-23 - 21-30 Real Madrid 7 - 3 Getafe</t>
-  </si>
-  <si>
-    <t>38:14</t>
-  </si>
-  <si>
-    <t>38:58</t>
-  </si>
-  <si>
-    <t>Se recupera sin problemas Arbeloa justo antes del lanzamiento de penalti por parte de Cristiano Ronaldo Pepe se acercﾃｳ hasta la zona de banquillos con molestias a la altura del glﾃｺteo izquierdo ese puede ser el motivo por el cual Rafael Varane ya lleve calentando desde hace unos minutos. Precauciﾃｳn por parte del Real Madrid Pepe reflejando molestias y Varane que hoy no ha sido titular como opciﾃｳn de recambio se equivoca Javier Hernﾃ｡ndez le esperaba para robar Freddy Nestroza Diego Castro Nestroza, Nestroza muy rﾃ｡pido jugando con Escudero que se suma bien al ataque el centro de Escudero pues le faltﾃｳ una zancada para llegar a zona de remate a Pablo Sarabia el Getafe estﾃ｡ desplegﾃ｡ndose en ataque con mucha gente el Getafe va a hacer un partido bueno interesante posiblemente van a terminar bien porque es una motivaciﾃｳn jugar en el Bernabﾃｩu y tiene grandes jugadores si el Madrid sin balﾃｳn no se aplica pues al final el Getafe se encuentra cﾃｳmodo puede correr tiene jugadores para poder combinar el saque de porterﾃｭa de Iker Casillas que volviﾃｳ a transformarse en un acontecimiento en el que se mezclaban reacciones encontradas corta Naldo no llega Pedro Leﾃｳn, Kroos, Nacho Toni Kroos, Illarra, Mendy, Cristiano Ronaldo saliﾃｳ a buscarle Naldo la pelota de Illarra Marcelo llega solo Marcelo en el ﾃ｡rea Marcelo que centra Vigaray corta de momento otra vez Marcelo ahora con la diestra una pelota peligrosa se preparaba para la chilena Cristiano deja para Chicharito rebota en Naldo y al final el alivio para el Getafe se lo da Juan Rodrﾃｭguez Marcelo, James y Marcelo pensando en salida se encuentra el tﾃｺnel que balﾃｳn para Gesege se atrﾃ｡s recibe Cristiano, Cristiano arbelﾃｳ hacia hacer un lﾃｭo y de todo esto Inestroza sale favorecido contra del Getafe que pase de Marcelo con un tﾃｺnel incluido dejando solo al compaﾃｱero Pablo Sarabia, Pepe rebaﾃｱa la pelota y creo que termina de romperse Roberto.</t>
-  </si>
-  <si>
-    <t>En la anterior ocasiﾃｳn como os indicaba cuando fue el penalti de Cristiano Ronaldo ya se acercﾃｳ a la zona de banquillos a que le mirasen los mﾃｩdicos tenﾃｭa lo dicho molestias a la altura del glﾃｺteo izquierdo mﾃ｡s que el glﾃｺteo ya lo vemos como es un poquito la zona mﾃ｡s baja ya la zona del muslo asﾃｭ que el Real Madrid probablemente se ha obligado a realizar el cambio de hecho ya estaban incluso listo y dispuesto se ha quitado el peto va a realizar el cambio el Real Madrid Pepe que ha hecho el ﾃｺltimo servicio al imperio blanco como indice cortando esta jugada en la cual ha terminado de romperse el central.</t>
-  </si>
-  <si>
-    <t>england_epl/2016-2017/2016-10-17 - 22-00 Liverpool 0 - 0 Manchester United</t>
-  </si>
-  <si>
-    <t>04:45</t>
-  </si>
-  <si>
-    <t>04:54</t>
-  </si>
-  <si>
-    <t>They're concerned about maybe the number of challenges going in, he could have let Manchester United play on there. Herrera.</t>
-  </si>
-  <si>
-    <t>That's the best goal for Ibrahimovic, and there's another tackle, and Liverpool are clearly out to make fire with fire.</t>
+    <t>Yeah, nice link-up play between Sanya and Navas. Good splant, young, to fob off Paul Pogba.</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>珍しいシーンで、不思議な言い回しをしている</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">メズラシイシーン </t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">フシギナイイマワシ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>映像には関連する</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">エイゾウニカンレンスル </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>言語の問題？</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲンゴノモンダイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>言語の問題？</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ゲンゴノモンダイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>（シーンの切り替え）映像には関連する</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">エイゾウ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">カンレンスル </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Mit 1-0 durch den Ex-Dortmunder Guy und dessen drittes Saisontor.</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>false-neg</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -2343,7 +923,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2516,6 +1096,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2952,7 +1538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2983,11 +1569,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3046,10 +1635,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="_93_1_target_prompt_True_3" connectionId="1" xr16:uid="{A19527C6-C2CD-FE47-B09E-AEED5A4802C5}" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3369,11 +1954,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95D9131-45DA-7D46-94A9-268442ECBDBC}">
-  <dimension ref="A1:I73"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3384,7 +1970,7 @@
     <col min="9" max="9" width="29.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22" customHeight="1">
+    <row r="1" spans="1:10" ht="22" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>189</v>
       </c>
@@ -3410,10 +1996,13 @@
         <v>196</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="63">
+        <v>232</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="63" hidden="1">
       <c r="A2">
         <v>591</v>
       </c>
@@ -3439,7 +2028,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="42">
+    <row r="3" spans="1:10" ht="42">
       <c r="A3">
         <v>2928</v>
       </c>
@@ -3465,7 +2054,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21">
+    <row r="4" spans="1:10" ht="21" hidden="1">
       <c r="A4">
         <v>6258</v>
       </c>
@@ -3491,7 +2080,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="42">
+    <row r="5" spans="1:10" ht="42" hidden="1">
       <c r="A5">
         <v>8469</v>
       </c>
@@ -3517,7 +2106,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21">
+    <row r="6" spans="1:10" ht="21">
       <c r="A6">
         <v>9362</v>
       </c>
@@ -3543,7 +2132,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="21">
+    <row r="7" spans="1:10" ht="21">
       <c r="A7">
         <v>10362</v>
       </c>
@@ -3569,7 +2158,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="42">
+    <row r="8" spans="1:10" ht="42">
       <c r="A8">
         <v>10986</v>
       </c>
@@ -3595,7 +2184,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="21">
+    <row r="9" spans="1:10" ht="21" hidden="1">
       <c r="A9">
         <v>11004</v>
       </c>
@@ -3621,7 +2210,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21">
+    <row r="10" spans="1:10" ht="21" hidden="1">
       <c r="A10">
         <v>13200</v>
       </c>
@@ -3647,7 +2236,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="42">
+    <row r="11" spans="1:10" ht="42" hidden="1">
       <c r="A11">
         <v>13446</v>
       </c>
@@ -3673,7 +2262,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="63">
+    <row r="12" spans="1:10" ht="63" hidden="1">
       <c r="A12">
         <v>19904</v>
       </c>
@@ -3699,7 +2288,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:10" ht="63" hidden="1">
       <c r="A13">
         <v>21110</v>
       </c>
@@ -3725,7 +2314,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="63">
+    <row r="14" spans="1:10" ht="63" hidden="1">
       <c r="A14">
         <v>30363</v>
       </c>
@@ -3751,7 +2340,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21">
+    <row r="15" spans="1:10" ht="21">
       <c r="A15">
         <v>31889</v>
       </c>
@@ -3777,7 +2366,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="42">
+    <row r="16" spans="1:10" ht="42">
       <c r="A16">
         <v>37404</v>
       </c>
@@ -3803,7 +2392,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21">
+    <row r="17" spans="1:10" ht="21" hidden="1">
       <c r="A17">
         <v>39486</v>
       </c>
@@ -3828,8 +2417,11 @@
       <c r="H17" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="21">
+      <c r="J17" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="21" hidden="1">
       <c r="A18">
         <v>44760</v>
       </c>
@@ -3855,7 +2447,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="21">
+    <row r="19" spans="1:10" ht="21">
       <c r="A19">
         <v>44833</v>
       </c>
@@ -3881,7 +2473,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="21">
+    <row r="20" spans="1:10" ht="21" hidden="1">
       <c r="A20">
         <v>45967</v>
       </c>
@@ -3907,7 +2499,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="63">
+    <row r="21" spans="1:10" ht="63" hidden="1">
       <c r="A21">
         <v>58545</v>
       </c>
@@ -3933,7 +2525,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="42">
+    <row r="22" spans="1:10" ht="42">
       <c r="A22">
         <v>59327</v>
       </c>
@@ -3959,7 +2551,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="42">
+    <row r="23" spans="1:10" ht="42" hidden="1">
       <c r="A23">
         <v>64337</v>
       </c>
@@ -3987,8 +2579,11 @@
       <c r="I23" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="21">
+      <c r="J23" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="21" hidden="1">
       <c r="A24">
         <v>66648</v>
       </c>
@@ -4016,8 +2611,11 @@
       <c r="I24" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="63">
+      <c r="J24" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="63" hidden="1">
       <c r="A25">
         <v>68619</v>
       </c>
@@ -4043,10 +2641,13 @@
         <v>199</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="42">
+        <v>233</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="42" hidden="1">
       <c r="A26">
         <v>70426</v>
       </c>
@@ -4072,7 +2673,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="55" customHeight="1">
+    <row r="27" spans="1:10" ht="55" hidden="1" customHeight="1">
       <c r="A27">
         <v>71664</v>
       </c>
@@ -4098,7 +2699,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="21">
+    <row r="28" spans="1:10" ht="21" hidden="1">
       <c r="A28">
         <v>72552</v>
       </c>
@@ -4123,8 +2724,14 @@
       <c r="H28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="42">
+      <c r="I28" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="42" hidden="1">
       <c r="A29">
         <v>78692</v>
       </c>
@@ -4141,7 +2748,7 @@
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>73</v>
@@ -4150,10 +2757,13 @@
         <v>199</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="21">
+        <v>220</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="21">
       <c r="A30">
         <v>79777</v>
       </c>
@@ -4179,7 +2789,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="21">
+    <row r="31" spans="1:10" ht="21" hidden="1">
       <c r="A31">
         <v>84855</v>
       </c>
@@ -4208,7 +2818,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="21">
+    <row r="32" spans="1:10" ht="21" hidden="1">
       <c r="A32">
         <v>91352</v>
       </c>
@@ -4237,7 +2847,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="21">
+    <row r="33" spans="1:10" ht="21" hidden="1">
       <c r="A33">
         <v>96357</v>
       </c>
@@ -4262,8 +2872,11 @@
       <c r="H33" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="42">
+      <c r="J33" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="42" hidden="1">
       <c r="A34">
         <v>96517</v>
       </c>
@@ -4289,7 +2902,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="42">
+    <row r="35" spans="1:10" ht="42" hidden="1">
       <c r="A35">
         <v>98556</v>
       </c>
@@ -4314,8 +2927,11 @@
       <c r="H35" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="42">
+      <c r="J35" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="42" hidden="1">
       <c r="A36">
         <v>100962</v>
       </c>
@@ -4341,7 +2957,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="42">
+    <row r="37" spans="1:10" ht="42" hidden="1">
       <c r="A37">
         <v>101337</v>
       </c>
@@ -4367,7 +2983,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="21">
+    <row r="38" spans="1:10" ht="21" hidden="1">
       <c r="A38">
         <v>103293</v>
       </c>
@@ -4396,7 +3012,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="21">
+    <row r="39" spans="1:10" ht="21">
       <c r="A39">
         <v>104256</v>
       </c>
@@ -4425,7 +3041,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="42">
+    <row r="40" spans="1:10" ht="42">
       <c r="A40">
         <v>105381</v>
       </c>
@@ -4454,7 +3070,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="21">
+    <row r="41" spans="1:10" ht="21" hidden="1">
       <c r="A41">
         <v>108566</v>
       </c>
@@ -4480,7 +3096,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="64" customHeight="1">
+    <row r="42" spans="1:10" ht="64" hidden="1" customHeight="1">
       <c r="A42">
         <v>108615</v>
       </c>
@@ -4506,7 +3122,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="63">
+    <row r="43" spans="1:10" ht="63">
       <c r="A43">
         <v>109326</v>
       </c>
@@ -4526,13 +3142,13 @@
         <v>107</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>108</v>
+        <v>243</v>
       </c>
       <c r="H43" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="21">
+    <row r="44" spans="1:10" ht="21" hidden="1">
       <c r="A44">
         <v>112092</v>
       </c>
@@ -4561,7 +3177,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="42">
+    <row r="45" spans="1:10" ht="42" hidden="1">
       <c r="A45">
         <v>112597</v>
       </c>
@@ -4587,7 +3203,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="21">
+    <row r="46" spans="1:10" ht="21" hidden="1">
       <c r="A46">
         <v>113636</v>
       </c>
@@ -4613,7 +3229,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="21">
+    <row r="47" spans="1:10" ht="21" hidden="1">
       <c r="A47">
         <v>116545</v>
       </c>
@@ -4639,7 +3255,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="21">
+    <row r="48" spans="1:10" ht="21" hidden="1">
       <c r="A48">
         <v>116610</v>
       </c>
@@ -4664,8 +3280,11 @@
       <c r="H48" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="21">
+      <c r="J48" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="21" hidden="1">
       <c r="A49">
         <v>117974</v>
       </c>
@@ -4694,7 +3313,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="42">
+    <row r="50" spans="1:10" ht="42" hidden="1">
       <c r="A50">
         <v>117982</v>
       </c>
@@ -4720,10 +3339,13 @@
         <v>199</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="42">
+        <v>242</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="42" hidden="1">
       <c r="A51">
         <v>117983</v>
       </c>
@@ -4752,7 +3374,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="21">
+    <row r="52" spans="1:10" ht="21" hidden="1">
       <c r="A52">
         <v>118132</v>
       </c>
@@ -4778,7 +3400,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="63">
+    <row r="53" spans="1:10" ht="63" hidden="1">
       <c r="A53">
         <v>120294</v>
       </c>
@@ -4803,8 +3425,14 @@
       <c r="H53" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="42">
+      <c r="I53" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="42" hidden="1">
       <c r="A54">
         <v>121200</v>
       </c>
@@ -4830,10 +3458,13 @@
         <v>199</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="42">
+        <v>239</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="42" hidden="1">
       <c r="A55">
         <v>122752</v>
       </c>
@@ -4858,8 +3489,14 @@
       <c r="H55" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="63">
+      <c r="I55" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="63" hidden="1">
       <c r="A56">
         <v>127226</v>
       </c>
@@ -4885,7 +3522,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="42">
+    <row r="57" spans="1:10" ht="42" hidden="1">
       <c r="A57">
         <v>130417</v>
       </c>
@@ -4911,7 +3548,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="21">
+    <row r="58" spans="1:10" ht="21" hidden="1">
       <c r="A58">
         <v>135069</v>
       </c>
@@ -4937,7 +3574,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="63">
+    <row r="59" spans="1:10" ht="63">
       <c r="A59">
         <v>146143</v>
       </c>
@@ -4954,16 +3591,17 @@
         <v>15</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>151</v>
       </c>
       <c r="H59" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="42">
+        <v>201</v>
+      </c>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" ht="42" hidden="1">
       <c r="A60">
         <v>148032</v>
       </c>
@@ -4989,7 +3627,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="63">
+    <row r="61" spans="1:10" ht="63" hidden="1">
       <c r="A61">
         <v>175203</v>
       </c>
@@ -5015,7 +3653,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="42">
+    <row r="62" spans="1:10" ht="42" hidden="1">
       <c r="A62">
         <v>182770</v>
       </c>
@@ -5041,7 +3679,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="21">
+    <row r="63" spans="1:10" ht="21" hidden="1">
       <c r="A63">
         <v>183047</v>
       </c>
@@ -5067,7 +3705,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="42">
+    <row r="64" spans="1:10" ht="42" hidden="1">
       <c r="A64">
         <v>187746</v>
       </c>
@@ -5096,7 +3734,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="42">
+    <row r="65" spans="1:10" ht="42" hidden="1">
       <c r="A65">
         <v>191315</v>
       </c>
@@ -5122,10 +3760,10 @@
         <v>199</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="42">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="42" hidden="1">
       <c r="A66">
         <v>196167</v>
       </c>
@@ -5151,7 +3789,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="84">
+    <row r="67" spans="1:10" ht="84" hidden="1">
       <c r="A67">
         <v>201050</v>
       </c>
@@ -5177,7 +3815,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="63">
+    <row r="68" spans="1:10" ht="63" hidden="1">
       <c r="A68">
         <v>201682</v>
       </c>
@@ -5194,7 +3832,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>176</v>
@@ -5203,7 +3841,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="67" customHeight="1">
+    <row r="69" spans="1:10" ht="67" hidden="1" customHeight="1">
       <c r="A69">
         <v>202006</v>
       </c>
@@ -5229,12 +3867,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="42">
+    <row r="70" spans="1:10" ht="42" hidden="1">
       <c r="A70">
         <v>208566</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C70" s="1">
         <v>1.1930555555555555</v>
@@ -5255,7 +3893,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="42">
+    <row r="71" spans="1:10" ht="42" hidden="1">
       <c r="A71">
         <v>210477</v>
       </c>
@@ -5280,8 +3918,14 @@
       <c r="H71" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="63">
+      <c r="I71" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="63" hidden="1">
       <c r="A72">
         <v>212648</v>
       </c>
@@ -5307,7 +3951,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="42">
+    <row r="73" spans="1:10" ht="42" hidden="1">
       <c r="A73">
         <v>213077</v>
       </c>
@@ -5324,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>188</v>
@@ -5337,11 +3981,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J73" xr:uid="{B95D9131-45DA-7D46-94A9-268442ECBDBC}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Irrelevant"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E17C6C2-80D6-814E-8A09-6ACC142473C2}">
           <x14:formula1>
             <xm:f>subcategory!$A$1:$A$2</xm:f>
@@ -5397,7 +4048,7 @@
         <v>196</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="63">
@@ -6728,7 +5379,7 @@
         <v>15</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>151</v>
@@ -6935,7 +5586,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>176</v>
@@ -6969,7 +5620,7 @@
         <v>208566</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C70" s="1">
         <v>1.1930555555555555</v>
@@ -7050,7 +5701,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>188</v>
@@ -7076,2353 +5727,436 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71D24A7-D95A-704F-B8C3-389CF7656B55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4C1FA8-BB5B-E342-A316-C68DC43060A7}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="80.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="7" width="80.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="42">
-      <c r="A2" s="9">
-        <v>59502</v>
-      </c>
-      <c r="B2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="9">
-        <v>105106</v>
-      </c>
-      <c r="B3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="42">
-      <c r="A4" s="9">
-        <v>17942</v>
-      </c>
-      <c r="B4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="21">
-      <c r="A5" s="9">
-        <v>36626</v>
-      </c>
-      <c r="B5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="294">
-      <c r="A6" s="9">
-        <v>5626</v>
-      </c>
-      <c r="B6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E6">
-        <v>234</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="42">
-      <c r="A7" s="9">
-        <v>61390</v>
-      </c>
-      <c r="B7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="21">
-      <c r="A8" s="9">
-        <v>35343</v>
-      </c>
-      <c r="B8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="21">
-      <c r="A9" s="9">
-        <v>1602</v>
-      </c>
-      <c r="B9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="21">
-      <c r="A10" s="9">
-        <v>119105</v>
-      </c>
-      <c r="B10" t="s">
-        <v>300</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="63">
-      <c r="A11" s="9">
-        <v>196409</v>
-      </c>
-      <c r="B11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="63">
-      <c r="A12" s="9">
-        <v>10645</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="63">
-      <c r="A13" s="9">
-        <v>163425</v>
-      </c>
-      <c r="B13" t="s">
-        <v>313</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="21">
-      <c r="A14" s="9">
-        <v>131167</v>
-      </c>
-      <c r="B14" t="s">
-        <v>317</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="42">
-      <c r="A15" s="9">
-        <v>2915</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="105">
-      <c r="A16" s="9">
-        <v>188976</v>
-      </c>
-      <c r="B16" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="42">
-      <c r="A17" s="9">
-        <v>15037</v>
-      </c>
-      <c r="B17" t="s">
-        <v>331</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="84">
-      <c r="A18" s="9">
-        <v>32527</v>
-      </c>
-      <c r="B18" t="s">
-        <v>336</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E18">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="42">
-      <c r="A19" s="9">
-        <v>71635</v>
-      </c>
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="42">
-      <c r="A20" s="9">
-        <v>121919</v>
-      </c>
-      <c r="B20" t="s">
-        <v>344</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E20">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="21">
-      <c r="A21" s="9">
-        <v>106666</v>
-      </c>
-      <c r="B21" t="s">
-        <v>349</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="63">
-      <c r="A22" s="9">
-        <v>179420</v>
-      </c>
-      <c r="B22" t="s">
-        <v>354</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="21">
-      <c r="A23" s="9">
-        <v>182167</v>
-      </c>
-      <c r="B23" t="s">
-        <v>359</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="63">
-      <c r="A24" s="9">
-        <v>208599</v>
-      </c>
-      <c r="B24" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="E24">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="63">
-      <c r="A25" s="9">
-        <v>10642</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="E25">
-        <v>14</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="42">
-      <c r="A26" s="9">
-        <v>156677</v>
-      </c>
-      <c r="B26" t="s">
-        <v>372</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="42">
-      <c r="A27" s="9">
-        <v>90250</v>
-      </c>
-      <c r="B27" t="s">
-        <v>377</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="63">
-      <c r="A28" s="9">
-        <v>123956</v>
-      </c>
-      <c r="B28" t="s">
-        <v>382</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="21">
-      <c r="A29" s="9">
-        <v>88581</v>
-      </c>
-      <c r="B29" t="s">
-        <v>386</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="105">
-      <c r="A30" s="9">
-        <v>15602</v>
-      </c>
-      <c r="B30" t="s">
-        <v>391</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E30">
-        <v>16</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="42">
-      <c r="A31" s="9">
-        <v>152</v>
-      </c>
-      <c r="B31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="63">
-      <c r="A32" s="9">
-        <v>158047</v>
-      </c>
-      <c r="B32" t="s">
-        <v>400</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="42">
-      <c r="A33" s="9">
-        <v>64977</v>
-      </c>
-      <c r="B33" t="s">
-        <v>405</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="42">
-      <c r="A34" s="9">
-        <v>136182</v>
-      </c>
-      <c r="B34" t="s">
-        <v>409</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="21">
-      <c r="A35" s="9">
-        <v>106339</v>
-      </c>
-      <c r="B35" t="s">
-        <v>413</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="63">
-      <c r="A36" s="9">
-        <v>180860</v>
-      </c>
-      <c r="B36" t="s">
-        <v>418</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="42">
-      <c r="A37" s="9">
-        <v>4480</v>
-      </c>
-      <c r="B37" t="s">
-        <v>423</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="21">
-      <c r="A38" s="9">
-        <v>94190</v>
-      </c>
-      <c r="B38" t="s">
-        <v>428</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="105">
-      <c r="A39" s="9">
-        <v>175142</v>
-      </c>
-      <c r="B39" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="21">
-      <c r="A40" s="9">
-        <v>23514</v>
-      </c>
-      <c r="B40" t="s">
-        <v>437</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E40">
-        <v>11</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="21">
-      <c r="A41" s="9">
-        <v>199658</v>
-      </c>
-      <c r="B41" t="s">
-        <v>441</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="63">
-      <c r="A42" s="9">
-        <v>2191</v>
-      </c>
-      <c r="B42" t="s">
-        <v>446</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="E42">
-        <v>9</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="21">
-      <c r="A43" s="9">
-        <v>8122</v>
-      </c>
-      <c r="B43" t="s">
-        <v>451</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="42">
-      <c r="A44" s="9">
-        <v>133552</v>
-      </c>
-      <c r="B44" t="s">
-        <v>456</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="E44">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="63">
-      <c r="A45" s="9">
-        <v>762</v>
-      </c>
-      <c r="B45" t="s">
-        <v>461</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="E45">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="147">
-      <c r="A46" s="9">
-        <v>144659</v>
-      </c>
-      <c r="B46" t="s">
-        <v>466</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="E46">
-        <v>6</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="42">
-      <c r="A47" s="9">
-        <v>4380</v>
-      </c>
-      <c r="B47" t="s">
-        <v>423</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="E47">
-        <v>16</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="21">
-      <c r="A48" s="9">
-        <v>177682</v>
-      </c>
-      <c r="B48" t="s">
-        <v>474</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="21">
-      <c r="A49" s="9">
-        <v>184749</v>
-      </c>
-      <c r="B49" t="s">
-        <v>479</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="42">
-      <c r="A50" s="9">
-        <v>24154</v>
-      </c>
-      <c r="B50" t="s">
-        <v>484</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="E50">
-        <v>6</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="42">
-      <c r="A51" s="9">
-        <v>18507</v>
-      </c>
-      <c r="B51" t="s">
-        <v>489</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="E51">
-        <v>5</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="21">
-      <c r="A52" s="9">
-        <v>15430</v>
-      </c>
-      <c r="B52" t="s">
-        <v>331</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="21">
-      <c r="A53" s="9">
-        <v>43569</v>
-      </c>
-      <c r="B53" t="s">
-        <v>497</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="E53">
-        <v>5</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="21">
-      <c r="A54" s="9">
-        <v>21335</v>
-      </c>
-      <c r="B54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="E54">
-        <v>4</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="21">
-      <c r="A55" s="9">
-        <v>20495</v>
-      </c>
-      <c r="B55" t="s">
-        <v>505</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="E55">
-        <v>5</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="63">
-      <c r="A56" s="9">
-        <v>140362</v>
-      </c>
-      <c r="B56" t="s">
-        <v>510</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="E56">
-        <v>9</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="21">
-      <c r="A57" s="9">
-        <v>71343</v>
-      </c>
-      <c r="B57" t="s">
-        <v>515</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="63">
-      <c r="A58" s="9">
-        <v>158691</v>
-      </c>
-      <c r="B58" t="s">
-        <v>520</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="E58">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="21">
-      <c r="A59" s="9">
-        <v>69539</v>
-      </c>
-      <c r="B59" t="s">
-        <v>525</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="E59">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="42">
-      <c r="A60" s="9">
-        <v>98144</v>
-      </c>
-      <c r="B60" t="s">
-        <v>530</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="E60">
-        <v>11</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="21">
-      <c r="A61" s="9">
-        <v>67266</v>
-      </c>
-      <c r="B61" t="s">
-        <v>534</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="42">
-      <c r="A62" s="9">
-        <v>49809</v>
-      </c>
-      <c r="B62" t="s">
-        <v>539</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="E62">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="42">
-      <c r="A63" s="9">
-        <v>201671</v>
-      </c>
-      <c r="B63" t="s">
-        <v>175</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="42">
-      <c r="A64" s="9">
-        <v>35779</v>
-      </c>
-      <c r="B64" t="s">
-        <v>546</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="E64">
-        <v>7</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="42">
-      <c r="A65" s="9">
-        <v>82126</v>
-      </c>
-      <c r="B65" t="s">
-        <v>551</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="E65">
-        <v>7</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="42">
-      <c r="A66" s="9">
-        <v>82455</v>
-      </c>
-      <c r="B66" t="s">
-        <v>551</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="42">
-      <c r="A67" s="9">
-        <v>11182</v>
-      </c>
-      <c r="B67" t="s">
-        <v>559</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E67">
-        <v>4</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="42">
-      <c r="A68" s="9">
-        <v>189182</v>
-      </c>
-      <c r="B68" t="s">
-        <v>326</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="E68">
-        <v>4</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="21">
-      <c r="A69" s="9">
-        <v>170201</v>
-      </c>
-      <c r="B69" t="s">
-        <v>568</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="42">
-      <c r="A70" s="9">
-        <v>202765</v>
-      </c>
-      <c r="B70" t="s">
-        <v>573</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="E70">
-        <v>5</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="42">
-      <c r="A71" s="9">
-        <v>43167</v>
-      </c>
-      <c r="B71" t="s">
-        <v>578</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="E71">
-        <v>11</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="63">
-      <c r="A72" s="9">
-        <v>165303</v>
-      </c>
-      <c r="B72" t="s">
-        <v>583</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="E72">
-        <v>7</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="63">
-      <c r="A73" s="9">
-        <v>112332</v>
-      </c>
-      <c r="B73" t="s">
-        <v>588</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E73">
-        <v>26</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="42">
-      <c r="A74" s="9">
-        <v>148884</v>
-      </c>
-      <c r="B74" t="s">
-        <v>592</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="E74">
-        <v>3</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="21">
-      <c r="A75">
-        <v>57640</v>
-      </c>
-      <c r="B75" t="s">
-        <v>597</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="21">
-      <c r="A76">
-        <v>34331</v>
-      </c>
-      <c r="B76" t="s">
-        <v>602</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E76">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="42">
-      <c r="A77">
-        <v>42316</v>
-      </c>
-      <c r="B77" t="s">
-        <v>606</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="E77">
-        <v>3</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="42">
-      <c r="A78">
-        <v>160555</v>
-      </c>
-      <c r="B78" t="s">
-        <v>611</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="E78">
-        <v>5</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="42">
-      <c r="A79">
-        <v>90057</v>
-      </c>
-      <c r="B79" t="s">
-        <v>616</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="42">
-      <c r="A80">
-        <v>60532</v>
-      </c>
-      <c r="B80" t="s">
-        <v>621</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="E80">
-        <v>5</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="42">
-      <c r="A81">
-        <v>8963</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="E81">
-        <v>4</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="42">
-      <c r="A82">
-        <v>97244</v>
-      </c>
-      <c r="B82" t="s">
-        <v>630</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="E82">
-        <v>7</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="42">
-      <c r="A83">
-        <v>156781</v>
-      </c>
-      <c r="B83" t="s">
-        <v>372</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="E83">
-        <v>7</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="21">
-      <c r="A84">
-        <v>103009</v>
-      </c>
-      <c r="B84" t="s">
-        <v>639</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="E84">
-        <v>20</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="21">
-      <c r="A85">
-        <v>79826</v>
-      </c>
-      <c r="B85" t="s">
-        <v>74</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="21">
-      <c r="A86">
-        <v>39051</v>
-      </c>
-      <c r="B86" t="s">
-        <v>648</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="E86">
-        <v>3</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="21">
-      <c r="A87">
-        <v>64328</v>
-      </c>
-      <c r="B87" t="s">
-        <v>55</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="E87">
-        <v>5</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="21">
-      <c r="A88">
-        <v>24361</v>
-      </c>
-      <c r="B88" t="s">
-        <v>657</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>659</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="42">
-      <c r="A89">
-        <v>52121</v>
-      </c>
-      <c r="B89" t="s">
-        <v>662</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="E89">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="21">
-      <c r="A90">
-        <v>99716</v>
-      </c>
-      <c r="B90" t="s">
-        <v>665</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="E90">
-        <v>3</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="21">
-      <c r="A91">
-        <v>145152</v>
-      </c>
-      <c r="B91" t="s">
-        <v>670</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="E91">
-        <v>2</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="84">
-      <c r="A92">
-        <v>63373</v>
-      </c>
-      <c r="B92" t="s">
-        <v>674</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="E92">
-        <v>12</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="42">
-      <c r="A93">
-        <v>77954</v>
-      </c>
-      <c r="B93" t="s">
-        <v>678</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="E93">
-        <v>4</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="42">
-      <c r="A94">
-        <v>9061</v>
-      </c>
-      <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="E94">
-        <v>2</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="21">
-      <c r="A95">
-        <v>54935</v>
-      </c>
-      <c r="B95" t="s">
-        <v>687</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="E95">
-        <v>17</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="21">
-      <c r="A96">
-        <v>11236</v>
-      </c>
-      <c r="B96" t="s">
-        <v>559</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="E96">
-        <v>3</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="42">
-      <c r="A97">
-        <v>115358</v>
-      </c>
-      <c r="B97" t="s">
-        <v>695</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="E97">
-        <v>14</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="63">
-      <c r="A98">
-        <v>124723</v>
-      </c>
-      <c r="B98" t="s">
-        <v>700</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>702</v>
-      </c>
-      <c r="E98">
-        <v>7</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="42">
-      <c r="A99">
-        <v>206584</v>
-      </c>
-      <c r="B99" t="s">
-        <v>705</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="E99">
-        <v>4</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="409.6">
-      <c r="A100">
-        <v>171683</v>
-      </c>
-      <c r="B100" t="s">
-        <v>710</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="E100">
-        <v>126</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="42">
-      <c r="A101">
-        <v>29458</v>
-      </c>
-      <c r="B101" t="s">
-        <v>715</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="E101">
-        <v>6</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>719</v>
-      </c>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="3:4">
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="3:4">
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" spans="3:4">
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="3:4">
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="3:4">
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
@@ -9431,7 +6165,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1820EBFF-FD3E-C648-9ABC-A6DE9BF3D241}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FF5C1246-50B6-594F-AE47-27BCB41F9E99}">
           <x14:formula1>
             <xm:f>subcategory!$A$1:$A$2</xm:f>
           </x14:formula1>
@@ -9459,11 +6193,11 @@
       </c>
       <c r="B1">
         <f>COUNTIF('10_1_moriy'!$H$1:'10_1_moriy'!$H$1999, A1)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="8">
         <f>B1/SUM(B1:B2)*100</f>
-        <v>83.333333333333343</v>
+        <v>81.944444444444443</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -9472,19 +6206,19 @@
       </c>
       <c r="B2">
         <f>COUNTIF('10_1_moriy'!$H$1:'10_1_moriy'!$H$1999, A2)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8">
         <f>B2/SUM(B1:B2)*100</f>
-        <v>16.666666666666664</v>
+        <v>18.055555555555554</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
